--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-19.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2058"/>
+  <dimension ref="A1:G2001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53246,10 +53246,8 @@
       <c r="D1935" t="inlineStr"/>
       <c r="E1935" t="inlineStr"/>
       <c r="F1935" t="inlineStr"/>
-      <c r="G1935" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1935" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1936">
@@ -53283,10 +53281,8 @@
           <t>$7.0B</t>
         </is>
       </c>
-      <c r="G1936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1936" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1937">
@@ -53320,10 +53316,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="G1937" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1937" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1938">
@@ -53357,10 +53351,8 @@
           <t>-0.6%</t>
         </is>
       </c>
-      <c r="G1938" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1938" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1939">
@@ -53394,10 +53386,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="G1939" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1939" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1940">
@@ -53431,10 +53421,8 @@
           <t>1921.0K</t>
         </is>
       </c>
-      <c r="G1940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1940" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1941">
@@ -53464,10 +53452,8 @@
           <t>230.0K</t>
         </is>
       </c>
-      <c r="G1941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1941" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1942">
@@ -53501,10 +53487,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="G1942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1942" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1943">
@@ -53534,10 +53518,8 @@
         </is>
       </c>
       <c r="F1943" t="inlineStr"/>
-      <c r="G1943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1943" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1944">
@@ -53567,10 +53549,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="G1944" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1944" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1945">
@@ -53596,10 +53576,8 @@
       </c>
       <c r="E1945" t="inlineStr"/>
       <c r="F1945" t="inlineStr"/>
-      <c r="G1945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1945" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1946">
@@ -53625,10 +53603,8 @@
       </c>
       <c r="E1946" t="inlineStr"/>
       <c r="F1946" t="inlineStr"/>
-      <c r="G1946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1946" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1947">
@@ -53654,10 +53630,8 @@
       </c>
       <c r="E1947" t="inlineStr"/>
       <c r="F1947" t="inlineStr"/>
-      <c r="G1947" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1947" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1948">
@@ -53683,10 +53657,8 @@
       </c>
       <c r="E1948" t="inlineStr"/>
       <c r="F1948" t="inlineStr"/>
-      <c r="G1948" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1948" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1949">
@@ -53712,93 +53684,119 @@
       </c>
       <c r="E1949" t="inlineStr"/>
       <c r="F1949" t="inlineStr"/>
-      <c r="G1949" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1949" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1950">
       <c r="A1950" t="inlineStr">
         <is>
-          <t>Friday May 09 2025</t>
-        </is>
-      </c>
-      <c r="B1950" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1950" t="inlineStr">
+        <is>
+          <t>Retail Sales Control Group MoMAPR</t>
+        </is>
+      </c>
       <c r="C1950" t="inlineStr"/>
-      <c r="D1950" t="inlineStr"/>
+      <c r="D1950" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="E1950" t="inlineStr"/>
-      <c r="F1950" t="inlineStr"/>
-      <c r="G1950" t="inlineStr"/>
+      <c r="F1950" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="G1950" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1951">
       <c r="A1951" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1951" t="inlineStr">
         <is>
-          <t>Fed Balance SheetMAY/07</t>
-        </is>
-      </c>
-      <c r="C1951" t="inlineStr">
-        <is>
-          <t>$6.71T</t>
-        </is>
-      </c>
+          <t>Retail Sales Ex Autos MoMAPR</t>
+        </is>
+      </c>
+      <c r="C1951" t="inlineStr"/>
       <c r="D1951" t="inlineStr">
         <is>
-          <t>$6.71T</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E1951" t="inlineStr"/>
-      <c r="F1951" t="inlineStr"/>
+      <c r="F1951" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="G1951" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1952">
       <c r="A1952" t="inlineStr">
         <is>
-          <t>03:45 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1952" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Continuing Jobless ClaimsMAY/03</t>
         </is>
       </c>
       <c r="C1952" t="inlineStr"/>
-      <c r="D1952" t="inlineStr"/>
+      <c r="D1952" t="inlineStr">
+        <is>
+          <t>1879K</t>
+        </is>
+      </c>
       <c r="E1952" t="inlineStr"/>
       <c r="F1952" t="inlineStr"/>
       <c r="G1952" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1953">
       <c r="A1953" t="inlineStr">
         <is>
-          <t>04:15 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1953" t="inlineStr">
         <is>
-          <t>Fed Barr Speech</t>
+          <t>Core PPI YoYAPR</t>
         </is>
       </c>
       <c r="C1953" t="inlineStr"/>
-      <c r="D1953" t="inlineStr"/>
+      <c r="D1953" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="E1953" t="inlineStr"/>
-      <c r="F1953" t="inlineStr"/>
+      <c r="F1953" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1953" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -53810,97 +53808,113 @@
       </c>
       <c r="B1954" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>Jobless Claims 4-week AverageMAY/10</t>
         </is>
       </c>
       <c r="C1954" t="inlineStr"/>
-      <c r="D1954" t="inlineStr"/>
+      <c r="D1954" t="inlineStr">
+        <is>
+          <t>227K</t>
+        </is>
+      </c>
       <c r="E1954" t="inlineStr"/>
       <c r="F1954" t="inlineStr"/>
       <c r="G1954" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1955">
       <c r="A1955" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1955" t="inlineStr">
         <is>
-          <t>Fed Goolsbee Speech</t>
+          <t>Philly Fed Business ConditionsMAY</t>
         </is>
       </c>
       <c r="C1955" t="inlineStr"/>
-      <c r="D1955" t="inlineStr"/>
+      <c r="D1955" t="inlineStr">
+        <is>
+          <t>6.9</t>
+        </is>
+      </c>
       <c r="E1955" t="inlineStr"/>
       <c r="F1955" t="inlineStr"/>
       <c r="G1955" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1956">
       <c r="A1956" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1956" t="inlineStr">
         <is>
-          <t>Fed Waller Speech</t>
+          <t>Philly Fed CAPEX IndexMAY</t>
         </is>
       </c>
       <c r="C1956" t="inlineStr"/>
-      <c r="D1956" t="inlineStr"/>
+      <c r="D1956" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="E1956" t="inlineStr"/>
       <c r="F1956" t="inlineStr"/>
       <c r="G1956" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1957">
       <c r="A1957" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1957" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Philly Fed EmploymentMAY</t>
         </is>
       </c>
       <c r="C1957" t="inlineStr"/>
-      <c r="D1957" t="inlineStr"/>
+      <c r="D1957" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
       <c r="E1957" t="inlineStr"/>
       <c r="F1957" t="inlineStr"/>
       <c r="G1957" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1958">
       <c r="A1958" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1958" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAY/09</t>
+          <t>Philly Fed New OrdersMAY</t>
         </is>
       </c>
       <c r="C1958" t="inlineStr"/>
       <c r="D1958" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>-34.2</t>
         </is>
       </c>
       <c r="E1958" t="inlineStr"/>
@@ -53914,18 +53928,18 @@
     <row r="1959">
       <c r="A1959" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1959" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAY/09</t>
+          <t>Philly Fed Prices PaidMAY</t>
         </is>
       </c>
       <c r="C1959" t="inlineStr"/>
       <c r="D1959" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>51.00</t>
         </is>
       </c>
       <c r="E1959" t="inlineStr"/>
@@ -53939,149 +53953,229 @@
     <row r="1960">
       <c r="A1960" t="inlineStr">
         <is>
-          <t>Saturday May 10 2025</t>
-        </is>
-      </c>
-      <c r="B1960" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1960" t="inlineStr">
+        <is>
+          <t>PPIAPR</t>
+        </is>
+      </c>
       <c r="C1960" t="inlineStr"/>
-      <c r="D1960" t="inlineStr"/>
+      <c r="D1960" t="inlineStr">
+        <is>
+          <t>147.464</t>
+        </is>
+      </c>
       <c r="E1960" t="inlineStr"/>
-      <c r="F1960" t="inlineStr"/>
-      <c r="G1960" t="inlineStr"/>
+      <c r="F1960" t="inlineStr">
+        <is>
+          <t>147.76</t>
+        </is>
+      </c>
+      <c r="G1960" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1961">
       <c r="A1961" t="inlineStr">
         <is>
-          <t>05:15 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1961" t="inlineStr">
         <is>
-          <t>Fed Cook Speech</t>
+          <t>PPI Ex Food, Energy and Trade MoMAPR</t>
         </is>
       </c>
       <c r="C1961" t="inlineStr"/>
-      <c r="D1961" t="inlineStr"/>
+      <c r="D1961" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="E1961" t="inlineStr"/>
-      <c r="F1961" t="inlineStr"/>
+      <c r="F1961" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G1961" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1962">
       <c r="A1962" t="inlineStr">
         <is>
-          <t>05:15 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1962" t="inlineStr">
         <is>
-          <t>Fed Hammack Speech</t>
+          <t>PPI Ex Food, Energy and Trade YoYAPR</t>
         </is>
       </c>
       <c r="C1962" t="inlineStr"/>
-      <c r="D1962" t="inlineStr"/>
+      <c r="D1962" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="E1962" t="inlineStr"/>
-      <c r="F1962" t="inlineStr"/>
+      <c r="F1962" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="G1962" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1963">
       <c r="A1963" t="inlineStr">
         <is>
-          <t>05:15 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1963" t="inlineStr">
         <is>
-          <t>Fed Musalem Speech</t>
+          <t>PPI YoYAPR</t>
         </is>
       </c>
       <c r="C1963" t="inlineStr"/>
-      <c r="D1963" t="inlineStr"/>
+      <c r="D1963" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="E1963" t="inlineStr"/>
-      <c r="F1963" t="inlineStr"/>
+      <c r="F1963" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="G1963" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1964">
       <c r="A1964" t="inlineStr">
         <is>
-          <t>Sunday May 11 2025</t>
-        </is>
-      </c>
-      <c r="B1964" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1964" t="inlineStr">
+        <is>
+          <t>Retail Sales Ex Gas/Autos MoMAPR</t>
+        </is>
+      </c>
       <c r="C1964" t="inlineStr"/>
-      <c r="D1964" t="inlineStr"/>
+      <c r="D1964" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="E1964" t="inlineStr"/>
-      <c r="F1964" t="inlineStr"/>
-      <c r="G1964" t="inlineStr"/>
+      <c r="F1964" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="G1964" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1965">
       <c r="A1965" t="inlineStr">
         <is>
-          <t>Monday May 12 2025</t>
-        </is>
-      </c>
-      <c r="B1965" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1965" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYAPR</t>
+        </is>
+      </c>
       <c r="C1965" t="inlineStr"/>
-      <c r="D1965" t="inlineStr"/>
+      <c r="D1965" t="inlineStr">
+        <is>
+          <t>4.6%</t>
+        </is>
+      </c>
       <c r="E1965" t="inlineStr"/>
-      <c r="F1965" t="inlineStr"/>
-      <c r="G1965" t="inlineStr"/>
+      <c r="F1965" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
+      <c r="G1965" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1966">
       <c r="A1966" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B1966" t="inlineStr">
         <is>
-          <t>NY Fed Treasury Purchases 4 to 6 yrs</t>
+          <t>Industrial Production MoMAPR</t>
         </is>
       </c>
       <c r="C1966" t="inlineStr"/>
-      <c r="D1966" t="inlineStr"/>
-      <c r="E1966" t="inlineStr">
-        <is>
-          <t>$75 million</t>
-        </is>
-      </c>
-      <c r="F1966" t="inlineStr"/>
+      <c r="D1966" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="E1966" t="inlineStr"/>
+      <c r="F1966" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G1966" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1967">
       <c r="A1967" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B1967" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Capacity UtilizationAPR</t>
         </is>
       </c>
       <c r="C1967" t="inlineStr"/>
       <c r="D1967" t="inlineStr">
         <is>
-          <t>4.220%</t>
+          <t>77.8%</t>
         </is>
       </c>
       <c r="E1967" t="inlineStr"/>
-      <c r="F1967" t="inlineStr"/>
+      <c r="F1967" t="inlineStr">
+        <is>
+          <t>77.8%</t>
+        </is>
+      </c>
       <c r="G1967" t="inlineStr">
         <is>
           <t>3</t>
@@ -54091,22 +54185,26 @@
     <row r="1968">
       <c r="A1968" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B1968" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Industrial Production YoYAPR</t>
         </is>
       </c>
       <c r="C1968" t="inlineStr"/>
       <c r="D1968" t="inlineStr">
         <is>
-          <t>4.090%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="E1968" t="inlineStr"/>
-      <c r="F1968" t="inlineStr"/>
+      <c r="F1968" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="G1968" t="inlineStr">
         <is>
           <t>3</t>
@@ -54116,18 +54214,26 @@
     <row r="1969">
       <c r="A1969" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B1969" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Manufacturing Production MoMAPR</t>
         </is>
       </c>
       <c r="C1969" t="inlineStr"/>
-      <c r="D1969" t="inlineStr"/>
+      <c r="D1969" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="E1969" t="inlineStr"/>
-      <c r="F1969" t="inlineStr"/>
+      <c r="F1969" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1969" t="inlineStr">
         <is>
           <t>3</t>
@@ -54137,83 +54243,99 @@
     <row r="1970">
       <c r="A1970" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B1970" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementAPR</t>
+          <t>Manufacturing Production YoYAPR</t>
         </is>
       </c>
       <c r="C1970" t="inlineStr"/>
       <c r="D1970" t="inlineStr">
         <is>
-          <t>$-161B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="E1970" t="inlineStr"/>
       <c r="F1970" t="inlineStr">
         <is>
-          <t>$235.0B</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="G1970" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1971">
       <c r="A1971" t="inlineStr">
         <is>
-          <t>Tuesday May 13 2025</t>
-        </is>
-      </c>
-      <c r="B1971" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1971" t="inlineStr">
+        <is>
+          <t>Business Inventories MoMMAR</t>
+        </is>
+      </c>
       <c r="C1971" t="inlineStr"/>
-      <c r="D1971" t="inlineStr"/>
+      <c r="D1971" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="E1971" t="inlineStr"/>
-      <c r="F1971" t="inlineStr"/>
-      <c r="G1971" t="inlineStr"/>
+      <c r="F1971" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G1971" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1972">
       <c r="A1972" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1972" t="inlineStr">
         <is>
-          <t>NFIB Business Optimism IndexAPR</t>
+          <t>NAHB Housing Market IndexMAY</t>
         </is>
       </c>
       <c r="C1972" t="inlineStr"/>
       <c r="D1972" t="inlineStr">
         <is>
-          <t>97.4</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E1972" t="inlineStr"/>
       <c r="F1972" t="inlineStr">
         <is>
-          <t>91.5</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G1972" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1973">
       <c r="A1973" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1973" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMAPR</t>
+          <t>Retail Inventories Ex Autos MoMMAR</t>
         </is>
       </c>
       <c r="C1973" t="inlineStr"/>
@@ -54224,186 +54346,150 @@
       </c>
       <c r="E1973" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F1973" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G1973" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1974">
       <c r="A1974" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1974" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYAPR</t>
+          <t>EIA Natural Gas Stocks ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1974" t="inlineStr"/>
       <c r="D1974" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>104Bcf</t>
         </is>
       </c>
       <c r="E1974" t="inlineStr"/>
-      <c r="F1974" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="F1974" t="inlineStr"/>
       <c r="G1974" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1975">
       <c r="A1975" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1975" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMAPR</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1975" t="inlineStr"/>
-      <c r="D1975" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1975" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1975" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="D1975" t="inlineStr"/>
+      <c r="E1975" t="inlineStr"/>
+      <c r="F1975" t="inlineStr"/>
       <c r="G1975" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1976">
       <c r="A1976" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1976" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYAPR</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1976" t="inlineStr"/>
-      <c r="D1976" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+      <c r="D1976" t="inlineStr"/>
       <c r="E1976" t="inlineStr"/>
-      <c r="F1976" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="F1976" t="inlineStr"/>
       <c r="G1976" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1977">
       <c r="A1977" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1977" t="inlineStr">
         <is>
-          <t>CPIAPR</t>
+          <t>15-Year Mortgage RateMAY/15</t>
         </is>
       </c>
       <c r="C1977" t="inlineStr"/>
       <c r="D1977" t="inlineStr">
         <is>
-          <t>319.799</t>
+          <t>5.89%</t>
         </is>
       </c>
       <c r="E1977" t="inlineStr"/>
-      <c r="F1977" t="inlineStr">
-        <is>
-          <t>321.7</t>
-        </is>
-      </c>
+      <c r="F1977" t="inlineStr"/>
       <c r="G1977" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1978">
       <c r="A1978" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1978" t="inlineStr">
         <is>
-          <t>CPI s.aAPR</t>
+          <t>30-Year Mortgage RateMAY/15</t>
         </is>
       </c>
       <c r="C1978" t="inlineStr"/>
       <c r="D1978" t="inlineStr">
         <is>
-          <t>319.615</t>
+          <t>6.76%</t>
         </is>
       </c>
       <c r="E1978" t="inlineStr"/>
-      <c r="F1978" t="inlineStr">
-        <is>
-          <t>320.6</t>
-        </is>
-      </c>
+      <c r="F1978" t="inlineStr"/>
       <c r="G1978" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1979">
       <c r="A1979" t="inlineStr">
         <is>
-          <t>06:25 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1979" t="inlineStr">
         <is>
-          <t>Redbook YoYMAY/10</t>
+          <t>NOPA Crush Report</t>
         </is>
       </c>
       <c r="C1979" t="inlineStr"/>
-      <c r="D1979" t="inlineStr">
-        <is>
-          <t>6.9%</t>
-        </is>
-      </c>
+      <c r="D1979" t="inlineStr"/>
       <c r="E1979" t="inlineStr"/>
       <c r="F1979" t="inlineStr"/>
       <c r="G1979" t="inlineStr">
@@ -54415,43 +54501,31 @@
     <row r="1980">
       <c r="A1980" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1980" t="inlineStr">
-        <is>
-          <t>Total Household DebtQ1</t>
-        </is>
-      </c>
+          <t>Friday May 16 2025</t>
+        </is>
+      </c>
+      <c r="B1980" t="inlineStr"/>
       <c r="C1980" t="inlineStr"/>
-      <c r="D1980" t="inlineStr">
-        <is>
-          <t>$18.04T</t>
-        </is>
-      </c>
+      <c r="D1980" t="inlineStr"/>
       <c r="E1980" t="inlineStr"/>
       <c r="F1980" t="inlineStr"/>
-      <c r="G1980" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1980" t="inlineStr"/>
     </row>
     <row r="1981">
       <c r="A1981" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1981" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Fed Balance SheetMAY/14</t>
         </is>
       </c>
       <c r="C1981" t="inlineStr"/>
       <c r="D1981" t="inlineStr">
         <is>
-          <t>3.820%</t>
+          <t>$6.71T</t>
         </is>
       </c>
       <c r="E1981" t="inlineStr"/>
@@ -54465,60 +54539,84 @@
     <row r="1982">
       <c r="A1982" t="inlineStr">
         <is>
-          <t>Wednesday May 14 2025</t>
-        </is>
-      </c>
-      <c r="B1982" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1982" t="inlineStr">
+        <is>
+          <t>Building Permits PrelAPR</t>
+        </is>
+      </c>
       <c r="C1982" t="inlineStr"/>
-      <c r="D1982" t="inlineStr"/>
+      <c r="D1982" t="inlineStr">
+        <is>
+          <t>1.467M</t>
+        </is>
+      </c>
       <c r="E1982" t="inlineStr"/>
-      <c r="F1982" t="inlineStr"/>
-      <c r="G1982" t="inlineStr"/>
+      <c r="F1982" t="inlineStr">
+        <is>
+          <t>1.45M</t>
+        </is>
+      </c>
+      <c r="G1982" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1983">
       <c r="A1983" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1983" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeMAY/09</t>
+          <t>Housing StartsAPR</t>
         </is>
       </c>
       <c r="C1983" t="inlineStr"/>
       <c r="D1983" t="inlineStr">
         <is>
-          <t>-4.49M</t>
+          <t>1.324M</t>
         </is>
       </c>
       <c r="E1983" t="inlineStr"/>
-      <c r="F1983" t="inlineStr"/>
+      <c r="F1983" t="inlineStr">
+        <is>
+          <t>1.31M</t>
+        </is>
+      </c>
       <c r="G1983" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1984">
       <c r="A1984" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1984" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateMAY/09</t>
+          <t>Building Permits MoM PrelAPR</t>
         </is>
       </c>
       <c r="C1984" t="inlineStr"/>
       <c r="D1984" t="inlineStr">
         <is>
-          <t>6.84%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E1984" t="inlineStr"/>
-      <c r="F1984" t="inlineStr"/>
+      <c r="F1984" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="G1984" t="inlineStr">
         <is>
           <t>2</t>
@@ -54528,97 +54626,113 @@
     <row r="1985">
       <c r="A1985" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1985" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsMAY/09</t>
+          <t>Export Prices MoMAPR</t>
         </is>
       </c>
       <c r="C1985" t="inlineStr"/>
       <c r="D1985" t="inlineStr">
         <is>
-          <t>11%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E1985" t="inlineStr"/>
-      <c r="F1985" t="inlineStr"/>
+      <c r="F1985" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1985" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1986">
       <c r="A1986" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1986" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexMAY/09</t>
+          <t>Housing Starts MoMAPR</t>
         </is>
       </c>
       <c r="C1986" t="inlineStr"/>
       <c r="D1986" t="inlineStr">
         <is>
-          <t>248.4</t>
+          <t>-11.4%</t>
         </is>
       </c>
       <c r="E1986" t="inlineStr"/>
-      <c r="F1986" t="inlineStr"/>
+      <c r="F1986" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
       <c r="G1986" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1987">
       <c r="A1987" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1987" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexMAY/09</t>
+          <t>Import Prices MoMAPR</t>
         </is>
       </c>
       <c r="C1987" t="inlineStr"/>
       <c r="D1987" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E1987" t="inlineStr"/>
-      <c r="F1987" t="inlineStr"/>
+      <c r="F1987" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G1987" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1988">
       <c r="A1988" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1988" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexMAY/09</t>
+          <t>Export Prices YoYAPR</t>
         </is>
       </c>
       <c r="C1988" t="inlineStr"/>
       <c r="D1988" t="inlineStr">
         <is>
-          <t>162.8</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="E1988" t="inlineStr"/>
-      <c r="F1988" t="inlineStr"/>
+      <c r="F1988" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="G1988" t="inlineStr">
         <is>
           <t>3</t>
@@ -54628,72 +54742,84 @@
     <row r="1989">
       <c r="A1989" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1989" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeMAY/09</t>
+          <t>Import Prices YoYAPR</t>
         </is>
       </c>
       <c r="C1989" t="inlineStr"/>
       <c r="D1989" t="inlineStr">
         <is>
-          <t>-2.032M</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="E1989" t="inlineStr"/>
-      <c r="F1989" t="inlineStr"/>
+      <c r="F1989" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="G1989" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1990">
       <c r="A1990" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1990" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeMAY/09</t>
+          <t>Michigan Consumer Sentiment PrelMAY</t>
         </is>
       </c>
       <c r="C1990" t="inlineStr"/>
       <c r="D1990" t="inlineStr">
         <is>
-          <t>0.188M</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="E1990" t="inlineStr"/>
-      <c r="F1990" t="inlineStr"/>
+      <c r="F1990" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
       <c r="G1990" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1991">
       <c r="A1991" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1991" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeMAY/09</t>
+          <t>Michigan 5 Year Inflation Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1991" t="inlineStr"/>
       <c r="D1991" t="inlineStr">
         <is>
-          <t>0.673M</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="E1991" t="inlineStr"/>
-      <c r="F1991" t="inlineStr"/>
+      <c r="F1991" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="G1991" t="inlineStr">
         <is>
           <t>3</t>
@@ -54703,22 +54829,26 @@
     <row r="1992">
       <c r="A1992" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1992" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAY/09</t>
+          <t>Michigan Consumer Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1992" t="inlineStr"/>
       <c r="D1992" t="inlineStr">
         <is>
-          <t>-0.74M</t>
+          <t>47.3</t>
         </is>
       </c>
       <c r="E1992" t="inlineStr"/>
-      <c r="F1992" t="inlineStr"/>
+      <c r="F1992" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
       <c r="G1992" t="inlineStr">
         <is>
           <t>3</t>
@@ -54728,22 +54858,26 @@
     <row r="1993">
       <c r="A1993" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1993" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeMAY/09</t>
+          <t>Michigan Current Conditions PrelMAY</t>
         </is>
       </c>
       <c r="C1993" t="inlineStr"/>
       <c r="D1993" t="inlineStr">
         <is>
-          <t>0.041M</t>
+          <t>59.8</t>
         </is>
       </c>
       <c r="E1993" t="inlineStr"/>
-      <c r="F1993" t="inlineStr"/>
+      <c r="F1993" t="inlineStr">
+        <is>
+          <t>59.5</t>
+        </is>
+      </c>
       <c r="G1993" t="inlineStr">
         <is>
           <t>3</t>
@@ -54753,22 +54887,26 @@
     <row r="1994">
       <c r="A1994" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1994" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeMAY/09</t>
+          <t>Michigan Inflation Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1994" t="inlineStr"/>
       <c r="D1994" t="inlineStr">
         <is>
-          <t>-1.107M</t>
+          <t>6.5%</t>
         </is>
       </c>
       <c r="E1994" t="inlineStr"/>
-      <c r="F1994" t="inlineStr"/>
+      <c r="F1994" t="inlineStr">
+        <is>
+          <t>6.6%</t>
+        </is>
+      </c>
       <c r="G1994" t="inlineStr">
         <is>
           <t>3</t>
@@ -54778,20 +54916,16 @@
     <row r="1995">
       <c r="A1995" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1995" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeMAY/09</t>
+          <t>Baker Hughes Oil Rig CountMAY/16</t>
         </is>
       </c>
       <c r="C1995" t="inlineStr"/>
-      <c r="D1995" t="inlineStr">
-        <is>
-          <t>0.253M</t>
-        </is>
-      </c>
+      <c r="D1995" t="inlineStr"/>
       <c r="E1995" t="inlineStr"/>
       <c r="F1995" t="inlineStr"/>
       <c r="G1995" t="inlineStr">
@@ -54803,20 +54937,16 @@
     <row r="1996">
       <c r="A1996" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1996" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeMAY/09</t>
+          <t>Baker Hughes Total Rigs CountMAY/16</t>
         </is>
       </c>
       <c r="C1996" t="inlineStr"/>
-      <c r="D1996" t="inlineStr">
-        <is>
-          <t>0.123M</t>
-        </is>
-      </c>
+      <c r="D1996" t="inlineStr"/>
       <c r="E1996" t="inlineStr"/>
       <c r="F1996" t="inlineStr"/>
       <c r="G1996" t="inlineStr">
@@ -54828,1624 +54958,103 @@
     <row r="1997">
       <c r="A1997" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1997" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeMAY/09</t>
-        </is>
-      </c>
+          <t>Saturday May 17 2025</t>
+        </is>
+      </c>
+      <c r="B1997" t="inlineStr"/>
       <c r="C1997" t="inlineStr"/>
-      <c r="D1997" t="inlineStr">
-        <is>
-          <t>-0.007M</t>
-        </is>
-      </c>
+      <c r="D1997" t="inlineStr"/>
       <c r="E1997" t="inlineStr"/>
       <c r="F1997" t="inlineStr"/>
-      <c r="G1997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1997" t="inlineStr"/>
     </row>
     <row r="1998">
       <c r="A1998" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B1998" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Net Long-term TIC FlowsMAR</t>
         </is>
       </c>
       <c r="C1998" t="inlineStr"/>
       <c r="D1998" t="inlineStr">
         <is>
-          <t>4.200%</t>
+          <t>$112B</t>
         </is>
       </c>
       <c r="E1998" t="inlineStr"/>
       <c r="F1998" t="inlineStr"/>
       <c r="G1998" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1999">
       <c r="A1999" t="inlineStr">
         <is>
-          <t>Thursday May 15 2025</t>
-        </is>
-      </c>
-      <c r="B1999" t="inlineStr"/>
+          <t>01:30 AM</t>
+        </is>
+      </c>
+      <c r="B1999" t="inlineStr">
+        <is>
+          <t>Foreign Bond InvestmentMAR</t>
+        </is>
+      </c>
       <c r="C1999" t="inlineStr"/>
-      <c r="D1999" t="inlineStr"/>
+      <c r="D1999" t="inlineStr">
+        <is>
+          <t>$106.2B</t>
+        </is>
+      </c>
       <c r="E1999" t="inlineStr"/>
       <c r="F1999" t="inlineStr"/>
-      <c r="G1999" t="inlineStr"/>
+      <c r="G1999" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2000">
       <c r="A2000" t="inlineStr">
         <is>
-          <t>03:10 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2000" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>Overall Net Capital FlowsMAR</t>
         </is>
       </c>
       <c r="C2000" t="inlineStr"/>
-      <c r="D2000" t="inlineStr"/>
+      <c r="D2000" t="inlineStr">
+        <is>
+          <t>$284.7B</t>
+        </is>
+      </c>
       <c r="E2000" t="inlineStr"/>
       <c r="F2000" t="inlineStr"/>
       <c r="G2000" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2001">
       <c r="A2001" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2001" t="inlineStr">
-        <is>
-          <t>PPI MoMAPR</t>
-        </is>
-      </c>
+          <t>Monday May 19 2025</t>
+        </is>
+      </c>
+      <c r="B2001" t="inlineStr"/>
       <c r="C2001" t="inlineStr"/>
-      <c r="D2001" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
+      <c r="D2001" t="inlineStr"/>
       <c r="E2001" t="inlineStr"/>
-      <c r="F2001" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2001" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2002">
-      <c r="A2002" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2002" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2002" t="inlineStr"/>
-      <c r="D2002" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="E2002" t="inlineStr"/>
-      <c r="F2002" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
-      <c r="G2002" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2003">
-      <c r="A2003" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2003" t="inlineStr">
-        <is>
-          <t>Core PPI MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2003" t="inlineStr"/>
-      <c r="D2003" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E2003" t="inlineStr"/>
-      <c r="F2003" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2003" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2004">
-      <c r="A2004" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2004" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAY/10</t>
-        </is>
-      </c>
-      <c r="C2004" t="inlineStr"/>
-      <c r="D2004" t="inlineStr">
-        <is>
-          <t>228K</t>
-        </is>
-      </c>
-      <c r="E2004" t="inlineStr"/>
-      <c r="F2004" t="inlineStr"/>
-      <c r="G2004" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2005">
-      <c r="A2005" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2005" t="inlineStr">
-        <is>
-          <t>NY Empire State Manufacturing IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2005" t="inlineStr"/>
-      <c r="D2005" t="inlineStr">
-        <is>
-          <t>-8.10</t>
-        </is>
-      </c>
-      <c r="E2005" t="inlineStr"/>
-      <c r="F2005" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="G2005" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2006">
-      <c r="A2006" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2006" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2006" t="inlineStr"/>
-      <c r="D2006" t="inlineStr">
-        <is>
-          <t>-26.4</t>
-        </is>
-      </c>
-      <c r="E2006" t="inlineStr"/>
-      <c r="F2006" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="G2006" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2007">
-      <c r="A2007" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2007" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2007" t="inlineStr"/>
-      <c r="D2007" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E2007" t="inlineStr"/>
-      <c r="F2007" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2007" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2008">
-      <c r="A2008" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2008" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2008" t="inlineStr"/>
-      <c r="D2008" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E2008" t="inlineStr"/>
-      <c r="F2008" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="G2008" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2009">
-      <c r="A2009" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2009" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAY/03</t>
-        </is>
-      </c>
-      <c r="C2009" t="inlineStr"/>
-      <c r="D2009" t="inlineStr">
-        <is>
-          <t>1879K</t>
-        </is>
-      </c>
-      <c r="E2009" t="inlineStr"/>
-      <c r="F2009" t="inlineStr"/>
-      <c r="G2009" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2010">
-      <c r="A2010" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2010" t="inlineStr">
-        <is>
-          <t>Core PPI YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2010" t="inlineStr"/>
-      <c r="D2010" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E2010" t="inlineStr"/>
-      <c r="F2010" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G2010" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2011">
-      <c r="A2011" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2011" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAY/10</t>
-        </is>
-      </c>
-      <c r="C2011" t="inlineStr"/>
-      <c r="D2011" t="inlineStr">
-        <is>
-          <t>227K</t>
-        </is>
-      </c>
-      <c r="E2011" t="inlineStr"/>
-      <c r="F2011" t="inlineStr"/>
-      <c r="G2011" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2012">
-      <c r="A2012" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2012" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsMAY</t>
-        </is>
-      </c>
-      <c r="C2012" t="inlineStr"/>
-      <c r="D2012" t="inlineStr">
-        <is>
-          <t>6.9</t>
-        </is>
-      </c>
-      <c r="E2012" t="inlineStr"/>
-      <c r="F2012" t="inlineStr"/>
-      <c r="G2012" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2013">
-      <c r="A2013" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2013" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2013" t="inlineStr"/>
-      <c r="D2013" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E2013" t="inlineStr"/>
-      <c r="F2013" t="inlineStr"/>
-      <c r="G2013" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2014">
-      <c r="A2014" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2014" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentMAY</t>
-        </is>
-      </c>
-      <c r="C2014" t="inlineStr"/>
-      <c r="D2014" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="E2014" t="inlineStr"/>
-      <c r="F2014" t="inlineStr"/>
-      <c r="G2014" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2015">
-      <c r="A2015" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2015" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersMAY</t>
-        </is>
-      </c>
-      <c r="C2015" t="inlineStr"/>
-      <c r="D2015" t="inlineStr">
-        <is>
-          <t>-34.2</t>
-        </is>
-      </c>
-      <c r="E2015" t="inlineStr"/>
-      <c r="F2015" t="inlineStr"/>
-      <c r="G2015" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2016">
-      <c r="A2016" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2016" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidMAY</t>
-        </is>
-      </c>
-      <c r="C2016" t="inlineStr"/>
-      <c r="D2016" t="inlineStr">
-        <is>
-          <t>51.00</t>
-        </is>
-      </c>
-      <c r="E2016" t="inlineStr"/>
-      <c r="F2016" t="inlineStr"/>
-      <c r="G2016" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2017">
-      <c r="A2017" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2017" t="inlineStr">
-        <is>
-          <t>PPIAPR</t>
-        </is>
-      </c>
-      <c r="C2017" t="inlineStr"/>
-      <c r="D2017" t="inlineStr">
-        <is>
-          <t>147.464</t>
-        </is>
-      </c>
-      <c r="E2017" t="inlineStr"/>
-      <c r="F2017" t="inlineStr">
-        <is>
-          <t>147.76</t>
-        </is>
-      </c>
-      <c r="G2017" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2018">
-      <c r="A2018" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2018" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2018" t="inlineStr"/>
-      <c r="D2018" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2018" t="inlineStr"/>
-      <c r="F2018" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2018" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2019">
-      <c r="A2019" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2019" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2019" t="inlineStr"/>
-      <c r="D2019" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E2019" t="inlineStr"/>
-      <c r="F2019" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G2019" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2020">
-      <c r="A2020" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2020" t="inlineStr">
-        <is>
-          <t>PPI YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2020" t="inlineStr"/>
-      <c r="D2020" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="E2020" t="inlineStr"/>
-      <c r="F2020" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G2020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2021">
-      <c r="A2021" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2021" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2021" t="inlineStr"/>
-      <c r="D2021" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E2021" t="inlineStr"/>
-      <c r="F2021" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="G2021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2022">
-      <c r="A2022" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2022" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2022" t="inlineStr"/>
-      <c r="D2022" t="inlineStr">
-        <is>
-          <t>4.6%</t>
-        </is>
-      </c>
-      <c r="E2022" t="inlineStr"/>
-      <c r="F2022" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G2022" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2023">
-      <c r="A2023" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2023" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2023" t="inlineStr"/>
-      <c r="D2023" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E2023" t="inlineStr"/>
-      <c r="F2023" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2023" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2024">
-      <c r="A2024" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2024" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationAPR</t>
-        </is>
-      </c>
-      <c r="C2024" t="inlineStr"/>
-      <c r="D2024" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="E2024" t="inlineStr"/>
-      <c r="F2024" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="G2024" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2025">
-      <c r="A2025" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2025" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2025" t="inlineStr"/>
-      <c r="D2025" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="E2025" t="inlineStr"/>
-      <c r="F2025" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="G2025" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2026">
-      <c r="A2026" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2026" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2026" t="inlineStr"/>
-      <c r="D2026" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E2026" t="inlineStr"/>
-      <c r="F2026" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2026" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2027">
-      <c r="A2027" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2027" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2027" t="inlineStr"/>
-      <c r="D2027" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="E2027" t="inlineStr"/>
-      <c r="F2027" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="G2027" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2028">
-      <c r="A2028" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2028" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMMAR</t>
-        </is>
-      </c>
-      <c r="C2028" t="inlineStr"/>
-      <c r="D2028" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E2028" t="inlineStr"/>
-      <c r="F2028" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2028" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2029">
-      <c r="A2029" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2029" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2029" t="inlineStr"/>
-      <c r="D2029" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="E2029" t="inlineStr"/>
-      <c r="F2029" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="G2029" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2030">
-      <c r="A2030" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2030" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMMAR</t>
-        </is>
-      </c>
-      <c r="C2030" t="inlineStr"/>
-      <c r="D2030" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2030" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2030" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2030" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2031">
-      <c r="A2031" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2031" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C2031" t="inlineStr"/>
-      <c r="D2031" t="inlineStr">
-        <is>
-          <t>104Bcf</t>
-        </is>
-      </c>
-      <c r="E2031" t="inlineStr"/>
-      <c r="F2031" t="inlineStr"/>
-      <c r="G2031" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2032">
-      <c r="A2032" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2032" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2032" t="inlineStr"/>
-      <c r="D2032" t="inlineStr"/>
-      <c r="E2032" t="inlineStr"/>
-      <c r="F2032" t="inlineStr"/>
-      <c r="G2032" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2033">
-      <c r="A2033" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2033" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2033" t="inlineStr"/>
-      <c r="D2033" t="inlineStr"/>
-      <c r="E2033" t="inlineStr"/>
-      <c r="F2033" t="inlineStr"/>
-      <c r="G2033" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2034">
-      <c r="A2034" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2034" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAY/15</t>
-        </is>
-      </c>
-      <c r="C2034" t="inlineStr"/>
-      <c r="D2034" t="inlineStr">
-        <is>
-          <t>5.89%</t>
-        </is>
-      </c>
-      <c r="E2034" t="inlineStr"/>
-      <c r="F2034" t="inlineStr"/>
-      <c r="G2034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2035">
-      <c r="A2035" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2035" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAY/15</t>
-        </is>
-      </c>
-      <c r="C2035" t="inlineStr"/>
-      <c r="D2035" t="inlineStr">
-        <is>
-          <t>6.76%</t>
-        </is>
-      </c>
-      <c r="E2035" t="inlineStr"/>
-      <c r="F2035" t="inlineStr"/>
-      <c r="G2035" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2036">
-      <c r="A2036" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2036" t="inlineStr">
-        <is>
-          <t>NOPA Crush Report</t>
-        </is>
-      </c>
-      <c r="C2036" t="inlineStr"/>
-      <c r="D2036" t="inlineStr"/>
-      <c r="E2036" t="inlineStr"/>
-      <c r="F2036" t="inlineStr"/>
-      <c r="G2036" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2037">
-      <c r="A2037" t="inlineStr">
-        <is>
-          <t>Friday May 16 2025</t>
-        </is>
-      </c>
-      <c r="B2037" t="inlineStr"/>
-      <c r="C2037" t="inlineStr"/>
-      <c r="D2037" t="inlineStr"/>
-      <c r="E2037" t="inlineStr"/>
-      <c r="F2037" t="inlineStr"/>
-      <c r="G2037" t="inlineStr"/>
-    </row>
-    <row r="2038">
-      <c r="A2038" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2038" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAY/14</t>
-        </is>
-      </c>
-      <c r="C2038" t="inlineStr"/>
-      <c r="D2038" t="inlineStr">
-        <is>
-          <t>$6.71T</t>
-        </is>
-      </c>
-      <c r="E2038" t="inlineStr"/>
-      <c r="F2038" t="inlineStr"/>
-      <c r="G2038" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2039">
-      <c r="A2039" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2039" t="inlineStr">
-        <is>
-          <t>Building Permits PrelAPR</t>
-        </is>
-      </c>
-      <c r="C2039" t="inlineStr"/>
-      <c r="D2039" t="inlineStr">
-        <is>
-          <t>1.467M</t>
-        </is>
-      </c>
-      <c r="E2039" t="inlineStr"/>
-      <c r="F2039" t="inlineStr">
-        <is>
-          <t>1.45M</t>
-        </is>
-      </c>
-      <c r="G2039" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2040">
-      <c r="A2040" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2040" t="inlineStr">
-        <is>
-          <t>Housing StartsAPR</t>
-        </is>
-      </c>
-      <c r="C2040" t="inlineStr"/>
-      <c r="D2040" t="inlineStr">
-        <is>
-          <t>1.324M</t>
-        </is>
-      </c>
-      <c r="E2040" t="inlineStr"/>
-      <c r="F2040" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
-      <c r="G2040" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2041">
-      <c r="A2041" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2041" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelAPR</t>
-        </is>
-      </c>
-      <c r="C2041" t="inlineStr"/>
-      <c r="D2041" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E2041" t="inlineStr"/>
-      <c r="F2041" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="G2041" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2042">
-      <c r="A2042" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2042" t="inlineStr">
-        <is>
-          <t>Export Prices MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2042" t="inlineStr"/>
-      <c r="D2042" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E2042" t="inlineStr"/>
-      <c r="F2042" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2042" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2043">
-      <c r="A2043" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2043" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2043" t="inlineStr"/>
-      <c r="D2043" t="inlineStr">
-        <is>
-          <t>-11.4%</t>
-        </is>
-      </c>
-      <c r="E2043" t="inlineStr"/>
-      <c r="F2043" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="G2043" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2044">
-      <c r="A2044" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2044" t="inlineStr">
-        <is>
-          <t>Import Prices MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2044" t="inlineStr"/>
-      <c r="D2044" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E2044" t="inlineStr"/>
-      <c r="F2044" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G2044" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2045">
-      <c r="A2045" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2045" t="inlineStr">
-        <is>
-          <t>Export Prices YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2045" t="inlineStr"/>
-      <c r="D2045" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E2045" t="inlineStr"/>
-      <c r="F2045" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="G2045" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2046">
-      <c r="A2046" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2046" t="inlineStr">
-        <is>
-          <t>Import Prices YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2046" t="inlineStr"/>
-      <c r="D2046" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E2046" t="inlineStr"/>
-      <c r="F2046" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="G2046" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2047">
-      <c r="A2047" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2047" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2047" t="inlineStr"/>
-      <c r="D2047" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="E2047" t="inlineStr"/>
-      <c r="F2047" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="G2047" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2048">
-      <c r="A2048" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2048" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2048" t="inlineStr"/>
-      <c r="D2048" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="E2048" t="inlineStr"/>
-      <c r="F2048" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G2048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2049">
-      <c r="A2049" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2049" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2049" t="inlineStr"/>
-      <c r="D2049" t="inlineStr">
-        <is>
-          <t>47.3</t>
-        </is>
-      </c>
-      <c r="E2049" t="inlineStr"/>
-      <c r="F2049" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="G2049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2050">
-      <c r="A2050" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2050" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2050" t="inlineStr"/>
-      <c r="D2050" t="inlineStr">
-        <is>
-          <t>59.8</t>
-        </is>
-      </c>
-      <c r="E2050" t="inlineStr"/>
-      <c r="F2050" t="inlineStr">
-        <is>
-          <t>59.5</t>
-        </is>
-      </c>
-      <c r="G2050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2051">
-      <c r="A2051" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2051" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2051" t="inlineStr"/>
-      <c r="D2051" t="inlineStr">
-        <is>
-          <t>6.5%</t>
-        </is>
-      </c>
-      <c r="E2051" t="inlineStr"/>
-      <c r="F2051" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="G2051" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2052">
-      <c r="A2052" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2052" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAY/16</t>
-        </is>
-      </c>
-      <c r="C2052" t="inlineStr"/>
-      <c r="D2052" t="inlineStr"/>
-      <c r="E2052" t="inlineStr"/>
-      <c r="F2052" t="inlineStr"/>
-      <c r="G2052" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2053">
-      <c r="A2053" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2053" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAY/16</t>
-        </is>
-      </c>
-      <c r="C2053" t="inlineStr"/>
-      <c r="D2053" t="inlineStr"/>
-      <c r="E2053" t="inlineStr"/>
-      <c r="F2053" t="inlineStr"/>
-      <c r="G2053" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2054">
-      <c r="A2054" t="inlineStr">
-        <is>
-          <t>Saturday May 17 2025</t>
-        </is>
-      </c>
-      <c r="B2054" t="inlineStr"/>
-      <c r="C2054" t="inlineStr"/>
-      <c r="D2054" t="inlineStr"/>
-      <c r="E2054" t="inlineStr"/>
-      <c r="F2054" t="inlineStr"/>
-      <c r="G2054" t="inlineStr"/>
-    </row>
-    <row r="2055">
-      <c r="A2055" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2055" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsMAR</t>
-        </is>
-      </c>
-      <c r="C2055" t="inlineStr"/>
-      <c r="D2055" t="inlineStr">
-        <is>
-          <t>$112B</t>
-        </is>
-      </c>
-      <c r="E2055" t="inlineStr"/>
-      <c r="F2055" t="inlineStr"/>
-      <c r="G2055" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2056">
-      <c r="A2056" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2056" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentMAR</t>
-        </is>
-      </c>
-      <c r="C2056" t="inlineStr"/>
-      <c r="D2056" t="inlineStr">
-        <is>
-          <t>$106.2B</t>
-        </is>
-      </c>
-      <c r="E2056" t="inlineStr"/>
-      <c r="F2056" t="inlineStr"/>
-      <c r="G2056" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2057">
-      <c r="A2057" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2057" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsMAR</t>
-        </is>
-      </c>
-      <c r="C2057" t="inlineStr"/>
-      <c r="D2057" t="inlineStr">
-        <is>
-          <t>$284.7B</t>
-        </is>
-      </c>
-      <c r="E2057" t="inlineStr"/>
-      <c r="F2057" t="inlineStr"/>
-      <c r="G2057" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2058">
-      <c r="A2058" t="inlineStr">
-        <is>
-          <t>Monday May 19 2025</t>
-        </is>
-      </c>
-      <c r="B2058" t="inlineStr"/>
-      <c r="C2058" t="inlineStr"/>
-      <c r="D2058" t="inlineStr"/>
-      <c r="E2058" t="inlineStr"/>
-      <c r="F2058" t="inlineStr"/>
-      <c r="G2058" t="inlineStr"/>
+      <c r="F2001" t="inlineStr"/>
+      <c r="G2001" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-19.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-19.xlsx
@@ -55646,7 +55646,11 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="E2031" t="inlineStr"/>
+      <c r="E2031" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2031" t="inlineStr">
         <is>
           <t>0.2%</t>
@@ -55675,10 +55679,14 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="E2032" t="inlineStr"/>
+      <c r="E2032" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F2032" t="inlineStr">
         <is>
-          <t>-0.8%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="G2032" t="inlineStr">
@@ -55704,7 +55712,11 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="E2033" t="inlineStr"/>
+      <c r="E2033" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F2033" t="inlineStr">
         <is>
           <t>0.1%</t>
@@ -55849,10 +55861,14 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="E2038" t="inlineStr"/>
+      <c r="E2038" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F2038" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G2038" t="inlineStr">
@@ -56264,7 +56280,11 @@
           <t>-0.3%</t>
         </is>
       </c>
-      <c r="E2053" t="inlineStr"/>
+      <c r="E2053" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F2053" t="inlineStr">
         <is>
           <t>-0.1%</t>
@@ -56293,7 +56313,11 @@
           <t>77.8%</t>
         </is>
       </c>
-      <c r="E2054" t="inlineStr"/>
+      <c r="E2054" t="inlineStr">
+        <is>
+          <t>77.8%</t>
+        </is>
+      </c>
       <c r="F2054" t="inlineStr">
         <is>
           <t>77.8%</t>
@@ -56409,7 +56433,11 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="E2058" t="inlineStr"/>
+      <c r="E2058" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2058" t="inlineStr">
         <is>
           <t>0.1%</t>
@@ -56713,7 +56741,11 @@
           <t>1.324M</t>
         </is>
       </c>
-      <c r="E2070" t="inlineStr"/>
+      <c r="E2070" t="inlineStr">
+        <is>
+          <t>1.36M</t>
+        </is>
+      </c>
       <c r="F2070" t="inlineStr">
         <is>
           <t>1.31M</t>
@@ -56916,7 +56948,11 @@
           <t>52.2</t>
         </is>
       </c>
-      <c r="E2077" t="inlineStr"/>
+      <c r="E2077" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
       <c r="F2077" t="inlineStr">
         <is>
           <t>52</t>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-19.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2088"/>
+  <dimension ref="A1:G2093"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54761,46 +54761,42 @@
     <row r="1996">
       <c r="A1996" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:55 PM</t>
         </is>
       </c>
       <c r="B1996" t="inlineStr">
         <is>
-          <t>NY Fed Treasury Purchases 4 to 6 yrs</t>
+          <t>Fed Kugler Speech</t>
         </is>
       </c>
       <c r="C1996" t="inlineStr"/>
       <c r="D1996" t="inlineStr"/>
-      <c r="E1996" t="inlineStr">
-        <is>
-          <t>$75 million</t>
-        </is>
-      </c>
+      <c r="E1996" t="inlineStr"/>
       <c r="F1996" t="inlineStr"/>
       <c r="G1996" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1997">
       <c r="A1997" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1997" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>NY Fed Treasury Purchases 4 to 6 yrs</t>
         </is>
       </c>
       <c r="C1997" t="inlineStr"/>
-      <c r="D1997" t="inlineStr">
-        <is>
-          <t>4.220%</t>
-        </is>
-      </c>
-      <c r="E1997" t="inlineStr"/>
+      <c r="D1997" t="inlineStr"/>
+      <c r="E1997" t="inlineStr">
+        <is>
+          <t>$75 million</t>
+        </is>
+      </c>
       <c r="F1997" t="inlineStr"/>
       <c r="G1997" t="inlineStr">
         <is>
@@ -54816,13 +54812,13 @@
       </c>
       <c r="B1998" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="C1998" t="inlineStr"/>
       <c r="D1998" t="inlineStr">
         <is>
-          <t>4.090%</t>
+          <t>4.220%</t>
         </is>
       </c>
       <c r="E1998" t="inlineStr"/>
@@ -54836,16 +54832,20 @@
     <row r="1999">
       <c r="A1999" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1999" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="C1999" t="inlineStr"/>
-      <c r="D1999" t="inlineStr"/>
+      <c r="D1999" t="inlineStr">
+        <is>
+          <t>4.090%</t>
+        </is>
+      </c>
       <c r="E1999" t="inlineStr"/>
       <c r="F1999" t="inlineStr"/>
       <c r="G1999" t="inlineStr">
@@ -54857,104 +54857,92 @@
     <row r="2000">
       <c r="A2000" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2000" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementAPR</t>
+          <t>WASDE Report</t>
         </is>
       </c>
       <c r="C2000" t="inlineStr"/>
-      <c r="D2000" t="inlineStr">
-        <is>
-          <t>$-161B</t>
-        </is>
-      </c>
+      <c r="D2000" t="inlineStr"/>
       <c r="E2000" t="inlineStr"/>
-      <c r="F2000" t="inlineStr">
-        <is>
-          <t>$235.0B</t>
-        </is>
-      </c>
+      <c r="F2000" t="inlineStr"/>
       <c r="G2000" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2001">
       <c r="A2001" t="inlineStr">
         <is>
-          <t>Tuesday May 13 2025</t>
-        </is>
-      </c>
-      <c r="B2001" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B2001" t="inlineStr">
+        <is>
+          <t>Monthly Budget StatementAPR</t>
+        </is>
+      </c>
       <c r="C2001" t="inlineStr"/>
-      <c r="D2001" t="inlineStr"/>
+      <c r="D2001" t="inlineStr">
+        <is>
+          <t>$-161B</t>
+        </is>
+      </c>
       <c r="E2001" t="inlineStr"/>
-      <c r="F2001" t="inlineStr"/>
-      <c r="G2001" t="inlineStr"/>
+      <c r="F2001" t="inlineStr">
+        <is>
+          <t>$235.0B</t>
+        </is>
+      </c>
+      <c r="G2001" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2002">
       <c r="A2002" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2002" t="inlineStr">
-        <is>
-          <t>NFIB Business Optimism IndexAPR</t>
-        </is>
-      </c>
+          <t>Tuesday May 13 2025</t>
+        </is>
+      </c>
+      <c r="B2002" t="inlineStr"/>
       <c r="C2002" t="inlineStr"/>
-      <c r="D2002" t="inlineStr">
-        <is>
-          <t>97.4</t>
-        </is>
-      </c>
+      <c r="D2002" t="inlineStr"/>
       <c r="E2002" t="inlineStr"/>
-      <c r="F2002" t="inlineStr">
-        <is>
-          <t>91.5</t>
-        </is>
-      </c>
-      <c r="G2002" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F2002" t="inlineStr"/>
+      <c r="G2002" t="inlineStr"/>
     </row>
     <row r="2003">
       <c r="A2003" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2003" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMAPR</t>
+          <t>NFIB Business Optimism IndexAPR</t>
         </is>
       </c>
       <c r="C2003" t="inlineStr"/>
       <c r="D2003" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2003" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>97.4</t>
+        </is>
+      </c>
+      <c r="E2003" t="inlineStr"/>
       <c r="F2003" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>91.5</t>
         </is>
       </c>
       <c r="G2003" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -54966,19 +54954,23 @@
       </c>
       <c r="B2004" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYAPR</t>
+          <t>Core Inflation Rate MoMAPR</t>
         </is>
       </c>
       <c r="C2004" t="inlineStr"/>
       <c r="D2004" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E2004" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E2004" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F2004" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G2004" t="inlineStr">
@@ -54995,23 +54987,19 @@
       </c>
       <c r="B2005" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMAPR</t>
+          <t>Core Inflation Rate YoYAPR</t>
         </is>
       </c>
       <c r="C2005" t="inlineStr"/>
       <c r="D2005" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E2005" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="E2005" t="inlineStr"/>
       <c r="F2005" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="G2005" t="inlineStr">
@@ -55028,19 +55016,23 @@
       </c>
       <c r="B2006" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYAPR</t>
+          <t>Inflation Rate MoMAPR</t>
         </is>
       </c>
       <c r="C2006" t="inlineStr"/>
       <c r="D2006" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E2006" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="E2006" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F2006" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G2006" t="inlineStr">
@@ -55057,24 +55049,24 @@
       </c>
       <c r="B2007" t="inlineStr">
         <is>
-          <t>CPIAPR</t>
+          <t>Inflation Rate YoYAPR</t>
         </is>
       </c>
       <c r="C2007" t="inlineStr"/>
       <c r="D2007" t="inlineStr">
         <is>
-          <t>319.799</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="E2007" t="inlineStr"/>
       <c r="F2007" t="inlineStr">
         <is>
-          <t>321.7</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="G2007" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -55086,19 +55078,19 @@
       </c>
       <c r="B2008" t="inlineStr">
         <is>
-          <t>CPI s.aAPR</t>
+          <t>CPIAPR</t>
         </is>
       </c>
       <c r="C2008" t="inlineStr"/>
       <c r="D2008" t="inlineStr">
         <is>
-          <t>319.615</t>
+          <t>319.799</t>
         </is>
       </c>
       <c r="E2008" t="inlineStr"/>
       <c r="F2008" t="inlineStr">
         <is>
-          <t>320.6</t>
+          <t>321.7</t>
         </is>
       </c>
       <c r="G2008" t="inlineStr">
@@ -55110,43 +55102,47 @@
     <row r="2009">
       <c r="A2009" t="inlineStr">
         <is>
-          <t>06:25 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2009" t="inlineStr">
         <is>
-          <t>Redbook YoYMAY/10</t>
+          <t>CPI s.aAPR</t>
         </is>
       </c>
       <c r="C2009" t="inlineStr"/>
       <c r="D2009" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>319.615</t>
         </is>
       </c>
       <c r="E2009" t="inlineStr"/>
-      <c r="F2009" t="inlineStr"/>
+      <c r="F2009" t="inlineStr">
+        <is>
+          <t>320.6</t>
+        </is>
+      </c>
       <c r="G2009" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>06:25 PM</t>
         </is>
       </c>
       <c r="B2010" t="inlineStr">
         <is>
-          <t>Total Household DebtQ1</t>
+          <t>Redbook YoYMAY/10</t>
         </is>
       </c>
       <c r="C2010" t="inlineStr"/>
       <c r="D2010" t="inlineStr">
         <is>
-          <t>$18.04T</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="E2010" t="inlineStr"/>
@@ -55160,18 +55156,18 @@
     <row r="2011">
       <c r="A2011" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2011" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Total Household DebtQ1</t>
         </is>
       </c>
       <c r="C2011" t="inlineStr"/>
       <c r="D2011" t="inlineStr">
         <is>
-          <t>3.820%</t>
+          <t>$18.04T</t>
         </is>
       </c>
       <c r="E2011" t="inlineStr"/>
@@ -55185,56 +55181,56 @@
     <row r="2012">
       <c r="A2012" t="inlineStr">
         <is>
-          <t>Wednesday May 14 2025</t>
-        </is>
-      </c>
-      <c r="B2012" t="inlineStr"/>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B2012" t="inlineStr">
+        <is>
+          <t>52-Week Bill Auction</t>
+        </is>
+      </c>
       <c r="C2012" t="inlineStr"/>
-      <c r="D2012" t="inlineStr"/>
+      <c r="D2012" t="inlineStr">
+        <is>
+          <t>3.820%</t>
+        </is>
+      </c>
       <c r="E2012" t="inlineStr"/>
       <c r="F2012" t="inlineStr"/>
-      <c r="G2012" t="inlineStr"/>
+      <c r="G2012" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2013">
       <c r="A2013" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2013" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeMAY/09</t>
-        </is>
-      </c>
+          <t>Wednesday May 14 2025</t>
+        </is>
+      </c>
+      <c r="B2013" t="inlineStr"/>
       <c r="C2013" t="inlineStr"/>
-      <c r="D2013" t="inlineStr">
-        <is>
-          <t>-4.49M</t>
-        </is>
-      </c>
+      <c r="D2013" t="inlineStr"/>
       <c r="E2013" t="inlineStr"/>
       <c r="F2013" t="inlineStr"/>
-      <c r="G2013" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2013" t="inlineStr"/>
     </row>
     <row r="2014">
       <c r="A2014" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2014" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateMAY/09</t>
+          <t>API Crude Oil Stock ChangeMAY/09</t>
         </is>
       </c>
       <c r="C2014" t="inlineStr"/>
       <c r="D2014" t="inlineStr">
         <is>
-          <t>6.84%</t>
+          <t>-4.49M</t>
         </is>
       </c>
       <c r="E2014" t="inlineStr"/>
@@ -55248,25 +55244,21 @@
     <row r="2015">
       <c r="A2015" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B2015" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsMAY/09</t>
+          <t>Fed Waller Speech</t>
         </is>
       </c>
       <c r="C2015" t="inlineStr"/>
-      <c r="D2015" t="inlineStr">
-        <is>
-          <t>11%</t>
-        </is>
-      </c>
+      <c r="D2015" t="inlineStr"/>
       <c r="E2015" t="inlineStr"/>
       <c r="F2015" t="inlineStr"/>
       <c r="G2015" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -55278,20 +55270,20 @@
       </c>
       <c r="B2016" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexMAY/09</t>
+          <t>MBA 30-Year Mortgage RateMAY/09</t>
         </is>
       </c>
       <c r="C2016" t="inlineStr"/>
       <c r="D2016" t="inlineStr">
         <is>
-          <t>248.4</t>
+          <t>6.84%</t>
         </is>
       </c>
       <c r="E2016" t="inlineStr"/>
       <c r="F2016" t="inlineStr"/>
       <c r="G2016" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -55303,13 +55295,13 @@
       </c>
       <c r="B2017" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexMAY/09</t>
+          <t>MBA Mortgage ApplicationsMAY/09</t>
         </is>
       </c>
       <c r="C2017" t="inlineStr"/>
       <c r="D2017" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>11%</t>
         </is>
       </c>
       <c r="E2017" t="inlineStr"/>
@@ -55328,13 +55320,13 @@
       </c>
       <c r="B2018" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexMAY/09</t>
+          <t>MBA Mortgage Market IndexMAY/09</t>
         </is>
       </c>
       <c r="C2018" t="inlineStr"/>
       <c r="D2018" t="inlineStr">
         <is>
-          <t>162.8</t>
+          <t>248.4</t>
         </is>
       </c>
       <c r="E2018" t="inlineStr"/>
@@ -55348,75 +55340,71 @@
     <row r="2019">
       <c r="A2019" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2019" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeMAY/09</t>
+          <t>MBA Mortgage Refinance IndexMAY/09</t>
         </is>
       </c>
       <c r="C2019" t="inlineStr"/>
       <c r="D2019" t="inlineStr">
         <is>
-          <t>-2.032M</t>
+          <t>721</t>
         </is>
       </c>
       <c r="E2019" t="inlineStr"/>
       <c r="F2019" t="inlineStr"/>
       <c r="G2019" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2020">
       <c r="A2020" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2020" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeMAY/09</t>
+          <t>MBA Purchase IndexMAY/09</t>
         </is>
       </c>
       <c r="C2020" t="inlineStr"/>
       <c r="D2020" t="inlineStr">
         <is>
-          <t>0.188M</t>
+          <t>162.8</t>
         </is>
       </c>
       <c r="E2020" t="inlineStr"/>
       <c r="F2020" t="inlineStr"/>
       <c r="G2020" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2021">
       <c r="A2021" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:40 PM</t>
         </is>
       </c>
       <c r="B2021" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeMAY/09</t>
+          <t>Fed Jefferson Speech</t>
         </is>
       </c>
       <c r="C2021" t="inlineStr"/>
-      <c r="D2021" t="inlineStr">
-        <is>
-          <t>0.673M</t>
-        </is>
-      </c>
+      <c r="D2021" t="inlineStr"/>
       <c r="E2021" t="inlineStr"/>
       <c r="F2021" t="inlineStr"/>
       <c r="G2021" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -55428,20 +55416,20 @@
       </c>
       <c r="B2022" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAY/09</t>
+          <t>EIA Crude Oil Stocks ChangeMAY/09</t>
         </is>
       </c>
       <c r="C2022" t="inlineStr"/>
       <c r="D2022" t="inlineStr">
         <is>
-          <t>-0.74M</t>
+          <t>-2.032M</t>
         </is>
       </c>
       <c r="E2022" t="inlineStr"/>
       <c r="F2022" t="inlineStr"/>
       <c r="G2022" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -55453,20 +55441,20 @@
       </c>
       <c r="B2023" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeMAY/09</t>
+          <t>EIA Gasoline Stocks ChangeMAY/09</t>
         </is>
       </c>
       <c r="C2023" t="inlineStr"/>
       <c r="D2023" t="inlineStr">
         <is>
-          <t>0.041M</t>
+          <t>0.188M</t>
         </is>
       </c>
       <c r="E2023" t="inlineStr"/>
       <c r="F2023" t="inlineStr"/>
       <c r="G2023" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -55478,13 +55466,13 @@
       </c>
       <c r="B2024" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeMAY/09</t>
+          <t>EIA Crude Oil Imports ChangeMAY/09</t>
         </is>
       </c>
       <c r="C2024" t="inlineStr"/>
       <c r="D2024" t="inlineStr">
         <is>
-          <t>-1.107M</t>
+          <t>0.673M</t>
         </is>
       </c>
       <c r="E2024" t="inlineStr"/>
@@ -55503,13 +55491,13 @@
       </c>
       <c r="B2025" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeMAY/09</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeMAY/09</t>
         </is>
       </c>
       <c r="C2025" t="inlineStr"/>
       <c r="D2025" t="inlineStr">
         <is>
-          <t>0.253M</t>
+          <t>-0.74M</t>
         </is>
       </c>
       <c r="E2025" t="inlineStr"/>
@@ -55528,13 +55516,13 @@
       </c>
       <c r="B2026" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeMAY/09</t>
+          <t>EIA Distillate Fuel Production ChangeMAY/09</t>
         </is>
       </c>
       <c r="C2026" t="inlineStr"/>
       <c r="D2026" t="inlineStr">
         <is>
-          <t>0.123M</t>
+          <t>0.041M</t>
         </is>
       </c>
       <c r="E2026" t="inlineStr"/>
@@ -55553,13 +55541,13 @@
       </c>
       <c r="B2027" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeMAY/09</t>
+          <t>EIA Distillate Stocks ChangeMAY/09</t>
         </is>
       </c>
       <c r="C2027" t="inlineStr"/>
       <c r="D2027" t="inlineStr">
         <is>
-          <t>-0.007M</t>
+          <t>-1.107M</t>
         </is>
       </c>
       <c r="E2027" t="inlineStr"/>
@@ -55573,18 +55561,18 @@
     <row r="2028">
       <c r="A2028" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2028" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>EIA Gasoline Production ChangeMAY/09</t>
         </is>
       </c>
       <c r="C2028" t="inlineStr"/>
       <c r="D2028" t="inlineStr">
         <is>
-          <t>4.200%</t>
+          <t>0.253M</t>
         </is>
       </c>
       <c r="E2028" t="inlineStr"/>
@@ -55598,130 +55586,106 @@
     <row r="2029">
       <c r="A2029" t="inlineStr">
         <is>
-          <t>Thursday May 15 2025</t>
-        </is>
-      </c>
-      <c r="B2029" t="inlineStr"/>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="B2029" t="inlineStr">
+        <is>
+          <t>EIA Heating Oil Stocks ChangeMAY/09</t>
+        </is>
+      </c>
       <c r="C2029" t="inlineStr"/>
-      <c r="D2029" t="inlineStr"/>
+      <c r="D2029" t="inlineStr">
+        <is>
+          <t>0.123M</t>
+        </is>
+      </c>
       <c r="E2029" t="inlineStr"/>
       <c r="F2029" t="inlineStr"/>
-      <c r="G2029" t="inlineStr"/>
+      <c r="G2029" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2030">
       <c r="A2030" t="inlineStr">
         <is>
-          <t>03:10 AM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2030" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>EIA Refinery Crude Runs ChangeMAY/09</t>
         </is>
       </c>
       <c r="C2030" t="inlineStr"/>
-      <c r="D2030" t="inlineStr"/>
+      <c r="D2030" t="inlineStr">
+        <is>
+          <t>-0.007M</t>
+        </is>
+      </c>
       <c r="E2030" t="inlineStr"/>
       <c r="F2030" t="inlineStr"/>
       <c r="G2030" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2031">
       <c r="A2031" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2031" t="inlineStr">
         <is>
-          <t>PPI MoMAPR</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2031" t="inlineStr"/>
       <c r="D2031" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="E2031" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F2031" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>4.200%</t>
+        </is>
+      </c>
+      <c r="E2031" t="inlineStr"/>
+      <c r="F2031" t="inlineStr"/>
       <c r="G2031" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2032">
       <c r="A2032" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2032" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMAPR</t>
-        </is>
-      </c>
+          <t>Thursday May 15 2025</t>
+        </is>
+      </c>
+      <c r="B2032" t="inlineStr"/>
       <c r="C2032" t="inlineStr"/>
-      <c r="D2032" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="E2032" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2032" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2032" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="D2032" t="inlineStr"/>
+      <c r="E2032" t="inlineStr"/>
+      <c r="F2032" t="inlineStr"/>
+      <c r="G2032" t="inlineStr"/>
     </row>
     <row r="2033">
       <c r="A2033" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>03:10 AM</t>
         </is>
       </c>
       <c r="B2033" t="inlineStr">
         <is>
-          <t>Core PPI MoMAPR</t>
+          <t>Fed Daly Speech</t>
         </is>
       </c>
       <c r="C2033" t="inlineStr"/>
-      <c r="D2033" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E2033" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2033" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="D2033" t="inlineStr"/>
+      <c r="E2033" t="inlineStr"/>
+      <c r="F2033" t="inlineStr"/>
       <c r="G2033" t="inlineStr">
         <is>
           <t>2</t>
@@ -55736,24 +55700,28 @@
       </c>
       <c r="B2034" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsMAY/10</t>
+          <t>PPI MoMAPR</t>
         </is>
       </c>
       <c r="C2034" t="inlineStr"/>
       <c r="D2034" t="inlineStr">
         <is>
-          <t>228K</t>
-        </is>
-      </c>
-      <c r="E2034" t="inlineStr"/>
+          <t>-0.4%</t>
+        </is>
+      </c>
+      <c r="E2034" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2034" t="inlineStr">
         <is>
-          <t>220.0K</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G2034" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -55765,24 +55733,28 @@
       </c>
       <c r="B2035" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexMAY</t>
+          <t>Retail Sales MoMAPR</t>
         </is>
       </c>
       <c r="C2035" t="inlineStr"/>
       <c r="D2035" t="inlineStr">
         <is>
-          <t>-8.10</t>
-        </is>
-      </c>
-      <c r="E2035" t="inlineStr"/>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="E2035" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F2035" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="G2035" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -55794,19 +55766,23 @@
       </c>
       <c r="B2036" t="inlineStr">
         <is>
-          <t>Philadelphia Fed Manufacturing IndexMAY</t>
+          <t>Core PPI MoMAPR</t>
         </is>
       </c>
       <c r="C2036" t="inlineStr"/>
       <c r="D2036" t="inlineStr">
         <is>
-          <t>-26.4</t>
-        </is>
-      </c>
-      <c r="E2036" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="E2036" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F2036" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G2036" t="inlineStr">
@@ -55823,19 +55799,19 @@
       </c>
       <c r="B2037" t="inlineStr">
         <is>
-          <t>Retail Sales Control Group MoMAPR</t>
+          <t>Initial Jobless ClaimsMAY/10</t>
         </is>
       </c>
       <c r="C2037" t="inlineStr"/>
       <c r="D2037" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>228K</t>
         </is>
       </c>
       <c r="E2037" t="inlineStr"/>
       <c r="F2037" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>220.0K</t>
         </is>
       </c>
       <c r="G2037" t="inlineStr">
@@ -55852,23 +55828,19 @@
       </c>
       <c r="B2038" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMAPR</t>
+          <t>NY Empire State Manufacturing IndexMAY</t>
         </is>
       </c>
       <c r="C2038" t="inlineStr"/>
       <c r="D2038" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E2038" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>-8.10</t>
+        </is>
+      </c>
+      <c r="E2038" t="inlineStr"/>
       <c r="F2038" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="G2038" t="inlineStr">
@@ -55885,24 +55857,24 @@
       </c>
       <c r="B2039" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsMAY/03</t>
+          <t>Philadelphia Fed Manufacturing IndexMAY</t>
         </is>
       </c>
       <c r="C2039" t="inlineStr"/>
       <c r="D2039" t="inlineStr">
         <is>
-          <t>1879K</t>
+          <t>-26.4</t>
         </is>
       </c>
       <c r="E2039" t="inlineStr"/>
       <c r="F2039" t="inlineStr">
         <is>
-          <t>1875.0K</t>
+          <t>-25</t>
         </is>
       </c>
       <c r="G2039" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -55914,24 +55886,24 @@
       </c>
       <c r="B2040" t="inlineStr">
         <is>
-          <t>Core PPI YoYAPR</t>
+          <t>Retail Sales Control Group MoMAPR</t>
         </is>
       </c>
       <c r="C2040" t="inlineStr"/>
       <c r="D2040" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E2040" t="inlineStr"/>
       <c r="F2040" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="G2040" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -55943,24 +55915,28 @@
       </c>
       <c r="B2041" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageMAY/10</t>
+          <t>Retail Sales Ex Autos MoMAPR</t>
         </is>
       </c>
       <c r="C2041" t="inlineStr"/>
       <c r="D2041" t="inlineStr">
         <is>
-          <t>227K</t>
-        </is>
-      </c>
-      <c r="E2041" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E2041" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F2041" t="inlineStr">
         <is>
-          <t>225.0K</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G2041" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -55972,17 +55948,21 @@
       </c>
       <c r="B2042" t="inlineStr">
         <is>
-          <t>Philly Fed Business ConditionsMAY</t>
+          <t>Continuing Jobless ClaimsMAY/03</t>
         </is>
       </c>
       <c r="C2042" t="inlineStr"/>
       <c r="D2042" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>1879K</t>
         </is>
       </c>
       <c r="E2042" t="inlineStr"/>
-      <c r="F2042" t="inlineStr"/>
+      <c r="F2042" t="inlineStr">
+        <is>
+          <t>1875.0K</t>
+        </is>
+      </c>
       <c r="G2042" t="inlineStr">
         <is>
           <t>3</t>
@@ -55997,17 +55977,21 @@
       </c>
       <c r="B2043" t="inlineStr">
         <is>
-          <t>Philly Fed CAPEX IndexMAY</t>
+          <t>Core PPI YoYAPR</t>
         </is>
       </c>
       <c r="C2043" t="inlineStr"/>
       <c r="D2043" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="E2043" t="inlineStr"/>
-      <c r="F2043" t="inlineStr"/>
+      <c r="F2043" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G2043" t="inlineStr">
         <is>
           <t>3</t>
@@ -56022,17 +56006,21 @@
       </c>
       <c r="B2044" t="inlineStr">
         <is>
-          <t>Philly Fed EmploymentMAY</t>
+          <t>Jobless Claims 4-week AverageMAY/10</t>
         </is>
       </c>
       <c r="C2044" t="inlineStr"/>
       <c r="D2044" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>227K</t>
         </is>
       </c>
       <c r="E2044" t="inlineStr"/>
-      <c r="F2044" t="inlineStr"/>
+      <c r="F2044" t="inlineStr">
+        <is>
+          <t>225.0K</t>
+        </is>
+      </c>
       <c r="G2044" t="inlineStr">
         <is>
           <t>3</t>
@@ -56047,13 +56035,13 @@
       </c>
       <c r="B2045" t="inlineStr">
         <is>
-          <t>Philly Fed New OrdersMAY</t>
+          <t>Philly Fed Business ConditionsMAY</t>
         </is>
       </c>
       <c r="C2045" t="inlineStr"/>
       <c r="D2045" t="inlineStr">
         <is>
-          <t>-34.2</t>
+          <t>6.9</t>
         </is>
       </c>
       <c r="E2045" t="inlineStr"/>
@@ -56072,13 +56060,13 @@
       </c>
       <c r="B2046" t="inlineStr">
         <is>
-          <t>Philly Fed Prices PaidMAY</t>
+          <t>Philly Fed CAPEX IndexMAY</t>
         </is>
       </c>
       <c r="C2046" t="inlineStr"/>
       <c r="D2046" t="inlineStr">
         <is>
-          <t>51.00</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E2046" t="inlineStr"/>
@@ -56097,21 +56085,17 @@
       </c>
       <c r="B2047" t="inlineStr">
         <is>
-          <t>PPIAPR</t>
+          <t>Philly Fed EmploymentMAY</t>
         </is>
       </c>
       <c r="C2047" t="inlineStr"/>
       <c r="D2047" t="inlineStr">
         <is>
-          <t>147.464</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="E2047" t="inlineStr"/>
-      <c r="F2047" t="inlineStr">
-        <is>
-          <t>147.76</t>
-        </is>
-      </c>
+      <c r="F2047" t="inlineStr"/>
       <c r="G2047" t="inlineStr">
         <is>
           <t>3</t>
@@ -56126,21 +56110,17 @@
       </c>
       <c r="B2048" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMAPR</t>
+          <t>Philly Fed New OrdersMAY</t>
         </is>
       </c>
       <c r="C2048" t="inlineStr"/>
       <c r="D2048" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-34.2</t>
         </is>
       </c>
       <c r="E2048" t="inlineStr"/>
-      <c r="F2048" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="F2048" t="inlineStr"/>
       <c r="G2048" t="inlineStr">
         <is>
           <t>3</t>
@@ -56155,21 +56135,17 @@
       </c>
       <c r="B2049" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYAPR</t>
+          <t>Philly Fed Prices PaidMAY</t>
         </is>
       </c>
       <c r="C2049" t="inlineStr"/>
       <c r="D2049" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>51.00</t>
         </is>
       </c>
       <c r="E2049" t="inlineStr"/>
-      <c r="F2049" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="F2049" t="inlineStr"/>
       <c r="G2049" t="inlineStr">
         <is>
           <t>3</t>
@@ -56184,19 +56160,19 @@
       </c>
       <c r="B2050" t="inlineStr">
         <is>
-          <t>PPI YoYAPR</t>
+          <t>PPIAPR</t>
         </is>
       </c>
       <c r="C2050" t="inlineStr"/>
       <c r="D2050" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>147.464</t>
         </is>
       </c>
       <c r="E2050" t="inlineStr"/>
       <c r="F2050" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>147.76</t>
         </is>
       </c>
       <c r="G2050" t="inlineStr">
@@ -56213,19 +56189,19 @@
       </c>
       <c r="B2051" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMAPR</t>
+          <t>PPI Ex Food, Energy and Trade MoMAPR</t>
         </is>
       </c>
       <c r="C2051" t="inlineStr"/>
       <c r="D2051" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E2051" t="inlineStr"/>
       <c r="F2051" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G2051" t="inlineStr">
@@ -56242,19 +56218,19 @@
       </c>
       <c r="B2052" t="inlineStr">
         <is>
-          <t>Retail Sales YoYAPR</t>
+          <t>PPI Ex Food, Energy and Trade YoYAPR</t>
         </is>
       </c>
       <c r="C2052" t="inlineStr"/>
       <c r="D2052" t="inlineStr">
         <is>
-          <t>4.6%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="E2052" t="inlineStr"/>
       <c r="F2052" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="G2052" t="inlineStr">
@@ -56266,61 +56242,53 @@
     <row r="2053">
       <c r="A2053" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2053" t="inlineStr">
         <is>
-          <t>Industrial Production MoMAPR</t>
+          <t>PPI YoYAPR</t>
         </is>
       </c>
       <c r="C2053" t="inlineStr"/>
       <c r="D2053" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E2053" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="E2053" t="inlineStr"/>
       <c r="F2053" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="G2053" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2054">
       <c r="A2054" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2054" t="inlineStr">
         <is>
-          <t>Capacity UtilizationAPR</t>
+          <t>Retail Sales Ex Gas/Autos MoMAPR</t>
         </is>
       </c>
       <c r="C2054" t="inlineStr"/>
       <c r="D2054" t="inlineStr">
         <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="E2054" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="E2054" t="inlineStr"/>
       <c r="F2054" t="inlineStr">
         <is>
-          <t>77.8%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="G2054" t="inlineStr">
@@ -56332,24 +56300,24 @@
     <row r="2055">
       <c r="A2055" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2055" t="inlineStr">
         <is>
-          <t>Industrial Production YoYAPR</t>
+          <t>Retail Sales YoYAPR</t>
         </is>
       </c>
       <c r="C2055" t="inlineStr"/>
       <c r="D2055" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>4.6%</t>
         </is>
       </c>
       <c r="E2055" t="inlineStr"/>
       <c r="F2055" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="G2055" t="inlineStr">
@@ -56361,29 +56329,21 @@
     <row r="2056">
       <c r="A2056" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>06:10 PM</t>
         </is>
       </c>
       <c r="B2056" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMAPR</t>
+          <t>Fed Chair Powell Speech</t>
         </is>
       </c>
       <c r="C2056" t="inlineStr"/>
-      <c r="D2056" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="D2056" t="inlineStr"/>
       <c r="E2056" t="inlineStr"/>
-      <c r="F2056" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F2056" t="inlineStr"/>
       <c r="G2056" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -56395,114 +56355,114 @@
       </c>
       <c r="B2057" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYAPR</t>
+          <t>Industrial Production MoMAPR</t>
         </is>
       </c>
       <c r="C2057" t="inlineStr"/>
       <c r="D2057" t="inlineStr">
         <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="E2057" t="inlineStr"/>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="E2057" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F2057" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="G2057" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2058">
       <c r="A2058" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B2058" t="inlineStr">
         <is>
-          <t>Business Inventories MoMMAR</t>
+          <t>Capacity UtilizationAPR</t>
         </is>
       </c>
       <c r="C2058" t="inlineStr"/>
       <c r="D2058" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>77.8%</t>
         </is>
       </c>
       <c r="E2058" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>77.8%</t>
         </is>
       </c>
       <c r="F2058" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>77.8%</t>
         </is>
       </c>
       <c r="G2058" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2059">
       <c r="A2059" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B2059" t="inlineStr">
         <is>
-          <t>NAHB Housing Market IndexMAY</t>
+          <t>Industrial Production YoYAPR</t>
         </is>
       </c>
       <c r="C2059" t="inlineStr"/>
       <c r="D2059" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="E2059" t="inlineStr"/>
       <c r="F2059" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="G2059" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2060">
       <c r="A2060" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B2060" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoMMAR</t>
+          <t>Manufacturing Production MoMAPR</t>
         </is>
       </c>
       <c r="C2060" t="inlineStr"/>
       <c r="D2060" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2060" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="E2060" t="inlineStr"/>
       <c r="F2060" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G2060" t="inlineStr">
@@ -56514,22 +56474,26 @@
     <row r="2061">
       <c r="A2061" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B2061" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeMAY/09</t>
+          <t>Manufacturing Production YoYAPR</t>
         </is>
       </c>
       <c r="C2061" t="inlineStr"/>
       <c r="D2061" t="inlineStr">
         <is>
-          <t>104Bcf</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="E2061" t="inlineStr"/>
-      <c r="F2061" t="inlineStr"/>
+      <c r="F2061" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="G2061" t="inlineStr">
         <is>
           <t>3</t>
@@ -56539,72 +56503,92 @@
     <row r="2062">
       <c r="A2062" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2062" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>Business Inventories MoMMAR</t>
         </is>
       </c>
       <c r="C2062" t="inlineStr"/>
       <c r="D2062" t="inlineStr">
         <is>
-          <t>4.225%</t>
-        </is>
-      </c>
-      <c r="E2062" t="inlineStr"/>
-      <c r="F2062" t="inlineStr"/>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E2062" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F2062" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G2062" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2063">
       <c r="A2063" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2063" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>NAHB Housing Market IndexMAY</t>
         </is>
       </c>
       <c r="C2063" t="inlineStr"/>
       <c r="D2063" t="inlineStr">
         <is>
-          <t>4.225%</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E2063" t="inlineStr"/>
-      <c r="F2063" t="inlineStr"/>
+      <c r="F2063" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
       <c r="G2063" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2064">
       <c r="A2064" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2064" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateMAY/15</t>
+          <t>Retail Inventories Ex Autos MoMMAR</t>
         </is>
       </c>
       <c r="C2064" t="inlineStr"/>
       <c r="D2064" t="inlineStr">
         <is>
-          <t>5.89%</t>
-        </is>
-      </c>
-      <c r="E2064" t="inlineStr"/>
-      <c r="F2064" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E2064" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F2064" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G2064" t="inlineStr">
         <is>
           <t>3</t>
@@ -56614,18 +56598,18 @@
     <row r="2065">
       <c r="A2065" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2065" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateMAY/15</t>
+          <t>EIA Natural Gas Stocks ChangeMAY/09</t>
         </is>
       </c>
       <c r="C2065" t="inlineStr"/>
       <c r="D2065" t="inlineStr">
         <is>
-          <t>6.76%</t>
+          <t>104Bcf</t>
         </is>
       </c>
       <c r="E2065" t="inlineStr"/>
@@ -56639,16 +56623,20 @@
     <row r="2066">
       <c r="A2066" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2066" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2066" t="inlineStr"/>
-      <c r="D2066" t="inlineStr"/>
+      <c r="D2066" t="inlineStr">
+        <is>
+          <t>4.225%</t>
+        </is>
+      </c>
       <c r="E2066" t="inlineStr"/>
       <c r="F2066" t="inlineStr"/>
       <c r="G2066" t="inlineStr">
@@ -56660,31 +56648,43 @@
     <row r="2067">
       <c r="A2067" t="inlineStr">
         <is>
-          <t>Friday May 16 2025</t>
-        </is>
-      </c>
-      <c r="B2067" t="inlineStr"/>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B2067" t="inlineStr">
+        <is>
+          <t>8-Week Bill Auction</t>
+        </is>
+      </c>
       <c r="C2067" t="inlineStr"/>
-      <c r="D2067" t="inlineStr"/>
+      <c r="D2067" t="inlineStr">
+        <is>
+          <t>4.225%</t>
+        </is>
+      </c>
       <c r="E2067" t="inlineStr"/>
       <c r="F2067" t="inlineStr"/>
-      <c r="G2067" t="inlineStr"/>
+      <c r="G2067" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2068">
       <c r="A2068" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2068" t="inlineStr">
         <is>
-          <t>Fed Balance SheetMAY/14</t>
+          <t>15-Year Mortgage RateMAY/15</t>
         </is>
       </c>
       <c r="C2068" t="inlineStr"/>
       <c r="D2068" t="inlineStr">
         <is>
-          <t>$6.71T</t>
+          <t>5.89%</t>
         </is>
       </c>
       <c r="E2068" t="inlineStr"/>
@@ -56698,88 +56698,64 @@
     <row r="2069">
       <c r="A2069" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2069" t="inlineStr">
         <is>
-          <t>Building Permits PrelAPR</t>
+          <t>30-Year Mortgage RateMAY/15</t>
         </is>
       </c>
       <c r="C2069" t="inlineStr"/>
       <c r="D2069" t="inlineStr">
         <is>
-          <t>1.467M</t>
+          <t>6.76%</t>
         </is>
       </c>
       <c r="E2069" t="inlineStr"/>
-      <c r="F2069" t="inlineStr">
-        <is>
-          <t>1.45M</t>
-        </is>
-      </c>
+      <c r="F2069" t="inlineStr"/>
       <c r="G2069" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2070">
       <c r="A2070" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2070" t="inlineStr">
         <is>
-          <t>Housing StartsAPR</t>
+          <t>NOPA Crush Report</t>
         </is>
       </c>
       <c r="C2070" t="inlineStr"/>
-      <c r="D2070" t="inlineStr">
-        <is>
-          <t>1.324M</t>
-        </is>
-      </c>
-      <c r="E2070" t="inlineStr">
-        <is>
-          <t>1.36M</t>
-        </is>
-      </c>
-      <c r="F2070" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
+      <c r="D2070" t="inlineStr"/>
+      <c r="E2070" t="inlineStr"/>
+      <c r="F2070" t="inlineStr"/>
       <c r="G2070" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2071">
       <c r="A2071" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>11:35 PM</t>
         </is>
       </c>
       <c r="B2071" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelAPR</t>
+          <t>Fed Barr Speech</t>
         </is>
       </c>
       <c r="C2071" t="inlineStr"/>
-      <c r="D2071" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="D2071" t="inlineStr"/>
       <c r="E2071" t="inlineStr"/>
-      <c r="F2071" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
+      <c r="F2071" t="inlineStr"/>
       <c r="G2071" t="inlineStr">
         <is>
           <t>2</t>
@@ -56789,58 +56765,38 @@
     <row r="2072">
       <c r="A2072" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2072" t="inlineStr">
-        <is>
-          <t>Export Prices MoMAPR</t>
-        </is>
-      </c>
+          <t>Friday May 16 2025</t>
+        </is>
+      </c>
+      <c r="B2072" t="inlineStr"/>
       <c r="C2072" t="inlineStr"/>
-      <c r="D2072" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="D2072" t="inlineStr"/>
       <c r="E2072" t="inlineStr"/>
-      <c r="F2072" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2072" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F2072" t="inlineStr"/>
+      <c r="G2072" t="inlineStr"/>
     </row>
     <row r="2073">
       <c r="A2073" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2073" t="inlineStr">
         <is>
-          <t>Housing Starts MoMAPR</t>
+          <t>Fed Balance SheetMAY/14</t>
         </is>
       </c>
       <c r="C2073" t="inlineStr"/>
       <c r="D2073" t="inlineStr">
         <is>
-          <t>-11.4%</t>
+          <t>$6.71T</t>
         </is>
       </c>
       <c r="E2073" t="inlineStr"/>
-      <c r="F2073" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="F2073" t="inlineStr"/>
       <c r="G2073" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -56852,24 +56808,24 @@
       </c>
       <c r="B2074" t="inlineStr">
         <is>
-          <t>Import Prices MoMAPR</t>
+          <t>Building Permits PrelAPR</t>
         </is>
       </c>
       <c r="C2074" t="inlineStr"/>
       <c r="D2074" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>1.467M</t>
         </is>
       </c>
       <c r="E2074" t="inlineStr"/>
       <c r="F2074" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.45M</t>
         </is>
       </c>
       <c r="G2074" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -56881,24 +56837,28 @@
       </c>
       <c r="B2075" t="inlineStr">
         <is>
-          <t>Export Prices YoYAPR</t>
+          <t>Housing StartsAPR</t>
         </is>
       </c>
       <c r="C2075" t="inlineStr"/>
       <c r="D2075" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E2075" t="inlineStr"/>
+          <t>1.324M</t>
+        </is>
+      </c>
+      <c r="E2075" t="inlineStr">
+        <is>
+          <t>1.36M</t>
+        </is>
+      </c>
       <c r="F2075" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>1.31M</t>
         </is>
       </c>
       <c r="G2075" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -56910,139 +56870,135 @@
       </c>
       <c r="B2076" t="inlineStr">
         <is>
-          <t>Import Prices YoYAPR</t>
+          <t>Building Permits MoM PrelAPR</t>
         </is>
       </c>
       <c r="C2076" t="inlineStr"/>
       <c r="D2076" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E2076" t="inlineStr"/>
       <c r="F2076" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="G2076" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2077">
       <c r="A2077" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2077" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelMAY</t>
+          <t>Export Prices MoMAPR</t>
         </is>
       </c>
       <c r="C2077" t="inlineStr"/>
       <c r="D2077" t="inlineStr">
         <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="E2077" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E2077" t="inlineStr"/>
       <c r="F2077" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G2077" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2078">
       <c r="A2078" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2078" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelMAY</t>
+          <t>Housing Starts MoMAPR</t>
         </is>
       </c>
       <c r="C2078" t="inlineStr"/>
       <c r="D2078" t="inlineStr">
         <is>
-          <t>4.4%</t>
+          <t>-11.4%</t>
         </is>
       </c>
       <c r="E2078" t="inlineStr"/>
       <c r="F2078" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="G2078" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2079">
       <c r="A2079" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2079" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelMAY</t>
+          <t>Import Prices MoMAPR</t>
         </is>
       </c>
       <c r="C2079" t="inlineStr"/>
       <c r="D2079" t="inlineStr">
         <is>
-          <t>47.3</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E2079" t="inlineStr"/>
       <c r="F2079" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="G2079" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2080">
       <c r="A2080" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2080" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelMAY</t>
+          <t>Export Prices YoYAPR</t>
         </is>
       </c>
       <c r="C2080" t="inlineStr"/>
       <c r="D2080" t="inlineStr">
         <is>
-          <t>59.8</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="E2080" t="inlineStr"/>
       <c r="F2080" t="inlineStr">
         <is>
-          <t>59.5</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="G2080" t="inlineStr">
@@ -57054,24 +57010,24 @@
     <row r="2081">
       <c r="A2081" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2081" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelMAY</t>
+          <t>Import Prices YoYAPR</t>
         </is>
       </c>
       <c r="C2081" t="inlineStr"/>
       <c r="D2081" t="inlineStr">
         <is>
-          <t>6.5%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="E2081" t="inlineStr"/>
       <c r="F2081" t="inlineStr">
         <is>
-          <t>6.6%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="G2081" t="inlineStr">
@@ -57083,39 +57039,59 @@
     <row r="2082">
       <c r="A2082" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2082" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAY/16</t>
+          <t>Michigan Consumer Sentiment PrelMAY</t>
         </is>
       </c>
       <c r="C2082" t="inlineStr"/>
-      <c r="D2082" t="inlineStr"/>
-      <c r="E2082" t="inlineStr"/>
-      <c r="F2082" t="inlineStr"/>
+      <c r="D2082" t="inlineStr">
+        <is>
+          <t>52.2</t>
+        </is>
+      </c>
+      <c r="E2082" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F2082" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
       <c r="G2082" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2083">
       <c r="A2083" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2083" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAY/16</t>
+          <t>Michigan 5 Year Inflation Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C2083" t="inlineStr"/>
-      <c r="D2083" t="inlineStr"/>
+      <c r="D2083" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
       <c r="E2083" t="inlineStr"/>
-      <c r="F2083" t="inlineStr"/>
+      <c r="F2083" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="G2083" t="inlineStr">
         <is>
           <t>3</t>
@@ -57125,60 +57101,84 @@
     <row r="2084">
       <c r="A2084" t="inlineStr">
         <is>
-          <t>Saturday May 17 2025</t>
-        </is>
-      </c>
-      <c r="B2084" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B2084" t="inlineStr">
+        <is>
+          <t>Michigan Consumer Expectations PrelMAY</t>
+        </is>
+      </c>
       <c r="C2084" t="inlineStr"/>
-      <c r="D2084" t="inlineStr"/>
+      <c r="D2084" t="inlineStr">
+        <is>
+          <t>47.3</t>
+        </is>
+      </c>
       <c r="E2084" t="inlineStr"/>
-      <c r="F2084" t="inlineStr"/>
-      <c r="G2084" t="inlineStr"/>
+      <c r="F2084" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G2084" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2085">
       <c r="A2085" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2085" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsMAR</t>
+          <t>Michigan Current Conditions PrelMAY</t>
         </is>
       </c>
       <c r="C2085" t="inlineStr"/>
       <c r="D2085" t="inlineStr">
         <is>
-          <t>$112B</t>
+          <t>59.8</t>
         </is>
       </c>
       <c r="E2085" t="inlineStr"/>
-      <c r="F2085" t="inlineStr"/>
+      <c r="F2085" t="inlineStr">
+        <is>
+          <t>59.5</t>
+        </is>
+      </c>
       <c r="G2085" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2086">
       <c r="A2086" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2086" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentMAR</t>
+          <t>Michigan Inflation Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C2086" t="inlineStr"/>
       <c r="D2086" t="inlineStr">
         <is>
-          <t>$106.2B</t>
+          <t>6.5%</t>
         </is>
       </c>
       <c r="E2086" t="inlineStr"/>
-      <c r="F2086" t="inlineStr"/>
+      <c r="F2086" t="inlineStr">
+        <is>
+          <t>6.6%</t>
+        </is>
+      </c>
       <c r="G2086" t="inlineStr">
         <is>
           <t>3</t>
@@ -57188,20 +57188,16 @@
     <row r="2087">
       <c r="A2087" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2087" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsMAR</t>
+          <t>Baker Hughes Oil Rig CountMAY/16</t>
         </is>
       </c>
       <c r="C2087" t="inlineStr"/>
-      <c r="D2087" t="inlineStr">
-        <is>
-          <t>$284.7B</t>
-        </is>
-      </c>
+      <c r="D2087" t="inlineStr"/>
       <c r="E2087" t="inlineStr"/>
       <c r="F2087" t="inlineStr"/>
       <c r="G2087" t="inlineStr">
@@ -57213,15 +57209,124 @@
     <row r="2088">
       <c r="A2088" t="inlineStr">
         <is>
-          <t>Monday May 19 2025</t>
-        </is>
-      </c>
-      <c r="B2088" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B2088" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountMAY/16</t>
+        </is>
+      </c>
       <c r="C2088" t="inlineStr"/>
       <c r="D2088" t="inlineStr"/>
       <c r="E2088" t="inlineStr"/>
       <c r="F2088" t="inlineStr"/>
-      <c r="G2088" t="inlineStr"/>
+      <c r="G2088" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2089">
+      <c r="A2089" t="inlineStr">
+        <is>
+          <t>Saturday May 17 2025</t>
+        </is>
+      </c>
+      <c r="B2089" t="inlineStr"/>
+      <c r="C2089" t="inlineStr"/>
+      <c r="D2089" t="inlineStr"/>
+      <c r="E2089" t="inlineStr"/>
+      <c r="F2089" t="inlineStr"/>
+      <c r="G2089" t="inlineStr"/>
+    </row>
+    <row r="2090">
+      <c r="A2090" t="inlineStr">
+        <is>
+          <t>01:30 AM</t>
+        </is>
+      </c>
+      <c r="B2090" t="inlineStr">
+        <is>
+          <t>Net Long-term TIC FlowsMAR</t>
+        </is>
+      </c>
+      <c r="C2090" t="inlineStr"/>
+      <c r="D2090" t="inlineStr">
+        <is>
+          <t>$112B</t>
+        </is>
+      </c>
+      <c r="E2090" t="inlineStr"/>
+      <c r="F2090" t="inlineStr"/>
+      <c r="G2090" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2091">
+      <c r="A2091" t="inlineStr">
+        <is>
+          <t>01:30 AM</t>
+        </is>
+      </c>
+      <c r="B2091" t="inlineStr">
+        <is>
+          <t>Foreign Bond InvestmentMAR</t>
+        </is>
+      </c>
+      <c r="C2091" t="inlineStr"/>
+      <c r="D2091" t="inlineStr">
+        <is>
+          <t>$106.2B</t>
+        </is>
+      </c>
+      <c r="E2091" t="inlineStr"/>
+      <c r="F2091" t="inlineStr"/>
+      <c r="G2091" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2092">
+      <c r="A2092" t="inlineStr">
+        <is>
+          <t>01:30 AM</t>
+        </is>
+      </c>
+      <c r="B2092" t="inlineStr">
+        <is>
+          <t>Overall Net Capital FlowsMAR</t>
+        </is>
+      </c>
+      <c r="C2092" t="inlineStr"/>
+      <c r="D2092" t="inlineStr">
+        <is>
+          <t>$284.7B</t>
+        </is>
+      </c>
+      <c r="E2092" t="inlineStr"/>
+      <c r="F2092" t="inlineStr"/>
+      <c r="G2092" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2093">
+      <c r="A2093" t="inlineStr">
+        <is>
+          <t>Monday May 19 2025</t>
+        </is>
+      </c>
+      <c r="B2093" t="inlineStr"/>
+      <c r="C2093" t="inlineStr"/>
+      <c r="D2093" t="inlineStr"/>
+      <c r="E2093" t="inlineStr"/>
+      <c r="F2093" t="inlineStr"/>
+      <c r="G2093" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-19.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-19.xlsx
@@ -55739,7 +55739,7 @@
       <c r="C2035" t="inlineStr"/>
       <c r="D2035" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="E2035" t="inlineStr">
@@ -55921,7 +55921,7 @@
       <c r="C2041" t="inlineStr"/>
       <c r="D2041" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="E2041" t="inlineStr">
@@ -56282,7 +56282,7 @@
       <c r="C2054" t="inlineStr"/>
       <c r="D2054" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="E2054" t="inlineStr"/>
@@ -56311,7 +56311,7 @@
       <c r="C2055" t="inlineStr"/>
       <c r="D2055" t="inlineStr">
         <is>
-          <t>4.6%</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="E2055" t="inlineStr"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-19.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-19.xlsx
@@ -54934,10 +54934,14 @@
           <t>97.4</t>
         </is>
       </c>
-      <c r="E2003" t="inlineStr"/>
+      <c r="E2003" t="inlineStr">
+        <is>
+          <t>94.5</t>
+        </is>
+      </c>
       <c r="F2003" t="inlineStr">
         <is>
-          <t>91.5</t>
+          <t>93.5</t>
         </is>
       </c>
       <c r="G2003" t="inlineStr">
@@ -55058,10 +55062,14 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="E2007" t="inlineStr"/>
+      <c r="E2007" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="F2007" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="G2007" t="inlineStr">
@@ -55090,7 +55098,7 @@
       <c r="E2008" t="inlineStr"/>
       <c r="F2008" t="inlineStr">
         <is>
-          <t>321.7</t>
+          <t>321.4</t>
         </is>
       </c>
       <c r="G2008" t="inlineStr">
@@ -55808,7 +55816,11 @@
           <t>228K</t>
         </is>
       </c>
-      <c r="E2037" t="inlineStr"/>
+      <c r="E2037" t="inlineStr">
+        <is>
+          <t>230K</t>
+        </is>
+      </c>
       <c r="F2037" t="inlineStr">
         <is>
           <t>220.0K</t>
@@ -55837,10 +55849,14 @@
           <t>-8.10</t>
         </is>
       </c>
-      <c r="E2038" t="inlineStr"/>
+      <c r="E2038" t="inlineStr">
+        <is>
+          <t>-7.1</t>
+        </is>
+      </c>
       <c r="F2038" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-7.6</t>
         </is>
       </c>
       <c r="G2038" t="inlineStr">
@@ -55866,10 +55882,14 @@
           <t>-26.4</t>
         </is>
       </c>
-      <c r="E2039" t="inlineStr"/>
+      <c r="E2039" t="inlineStr">
+        <is>
+          <t>-8.5</t>
+        </is>
+      </c>
       <c r="F2039" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="G2039" t="inlineStr">
@@ -56550,7 +56570,11 @@
           <t>40</t>
         </is>
       </c>
-      <c r="E2063" t="inlineStr"/>
+      <c r="E2063" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
       <c r="F2063" t="inlineStr">
         <is>
           <t>40</t>
@@ -56817,7 +56841,11 @@
           <t>1.467M</t>
         </is>
       </c>
-      <c r="E2074" t="inlineStr"/>
+      <c r="E2074" t="inlineStr">
+        <is>
+          <t>1.450M</t>
+        </is>
+      </c>
       <c r="F2074" t="inlineStr">
         <is>
           <t>1.45M</t>
@@ -56911,7 +56939,7 @@
       <c r="E2077" t="inlineStr"/>
       <c r="F2077" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="G2077" t="inlineStr">
@@ -56966,10 +56994,14 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="E2079" t="inlineStr"/>
+      <c r="E2079" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2079" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="G2079" t="inlineStr">
@@ -57027,7 +57059,7 @@
       <c r="E2081" t="inlineStr"/>
       <c r="F2081" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="G2081" t="inlineStr">

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-19.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2093"/>
+  <dimension ref="A1:G2094"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57360,6 +57360,35 @@
       <c r="F2093" t="inlineStr"/>
       <c r="G2093" t="inlineStr"/>
     </row>
+    <row r="2094">
+      <c r="A2094" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B2094" t="inlineStr">
+        <is>
+          <t>CB Leading Index MoMAPR</t>
+        </is>
+      </c>
+      <c r="C2094" t="inlineStr"/>
+      <c r="D2094" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="E2094" t="inlineStr"/>
+      <c r="F2094" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="G2094" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-19.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2094"/>
+  <dimension ref="A1:G2095"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54748,80 +54748,76 @@
     <row r="1995">
       <c r="A1995" t="inlineStr">
         <is>
-          <t>Monday May 12 2025</t>
-        </is>
-      </c>
-      <c r="B1995" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B1995" t="inlineStr">
+        <is>
+          <t>Fed Barkin Speech</t>
+        </is>
+      </c>
       <c r="C1995" t="inlineStr"/>
       <c r="D1995" t="inlineStr"/>
       <c r="E1995" t="inlineStr"/>
       <c r="F1995" t="inlineStr"/>
-      <c r="G1995" t="inlineStr"/>
+      <c r="G1995" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1996">
       <c r="A1996" t="inlineStr">
         <is>
-          <t>07:55 PM</t>
-        </is>
-      </c>
-      <c r="B1996" t="inlineStr">
-        <is>
-          <t>Fed Kugler Speech</t>
-        </is>
-      </c>
+          <t>Monday May 12 2025</t>
+        </is>
+      </c>
+      <c r="B1996" t="inlineStr"/>
       <c r="C1996" t="inlineStr"/>
       <c r="D1996" t="inlineStr"/>
       <c r="E1996" t="inlineStr"/>
       <c r="F1996" t="inlineStr"/>
-      <c r="G1996" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1996" t="inlineStr"/>
     </row>
     <row r="1997">
       <c r="A1997" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:55 PM</t>
         </is>
       </c>
       <c r="B1997" t="inlineStr">
         <is>
-          <t>NY Fed Treasury Purchases 4 to 6 yrs</t>
+          <t>Fed Kugler Speech</t>
         </is>
       </c>
       <c r="C1997" t="inlineStr"/>
       <c r="D1997" t="inlineStr"/>
-      <c r="E1997" t="inlineStr">
-        <is>
-          <t>$75 million</t>
-        </is>
-      </c>
+      <c r="E1997" t="inlineStr"/>
       <c r="F1997" t="inlineStr"/>
       <c r="G1997" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1998">
       <c r="A1998" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1998" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>NY Fed Treasury Purchases 4 to 6 yrs</t>
         </is>
       </c>
       <c r="C1998" t="inlineStr"/>
-      <c r="D1998" t="inlineStr">
-        <is>
-          <t>4.220%</t>
-        </is>
-      </c>
-      <c r="E1998" t="inlineStr"/>
+      <c r="D1998" t="inlineStr"/>
+      <c r="E1998" t="inlineStr">
+        <is>
+          <t>$75 million</t>
+        </is>
+      </c>
       <c r="F1998" t="inlineStr"/>
       <c r="G1998" t="inlineStr">
         <is>
@@ -54837,13 +54833,13 @@
       </c>
       <c r="B1999" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="C1999" t="inlineStr"/>
       <c r="D1999" t="inlineStr">
         <is>
-          <t>4.090%</t>
+          <t>4.220%</t>
         </is>
       </c>
       <c r="E1999" t="inlineStr"/>
@@ -54857,16 +54853,20 @@
     <row r="2000">
       <c r="A2000" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2000" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="C2000" t="inlineStr"/>
-      <c r="D2000" t="inlineStr"/>
+      <c r="D2000" t="inlineStr">
+        <is>
+          <t>4.090%</t>
+        </is>
+      </c>
       <c r="E2000" t="inlineStr"/>
       <c r="F2000" t="inlineStr"/>
       <c r="G2000" t="inlineStr">
@@ -54878,108 +54878,100 @@
     <row r="2001">
       <c r="A2001" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2001" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementAPR</t>
+          <t>WASDE Report</t>
         </is>
       </c>
       <c r="C2001" t="inlineStr"/>
-      <c r="D2001" t="inlineStr">
-        <is>
-          <t>$-161B</t>
-        </is>
-      </c>
+      <c r="D2001" t="inlineStr"/>
       <c r="E2001" t="inlineStr"/>
-      <c r="F2001" t="inlineStr">
-        <is>
-          <t>$235.0B</t>
-        </is>
-      </c>
+      <c r="F2001" t="inlineStr"/>
       <c r="G2001" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2002">
       <c r="A2002" t="inlineStr">
         <is>
-          <t>Tuesday May 13 2025</t>
-        </is>
-      </c>
-      <c r="B2002" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B2002" t="inlineStr">
+        <is>
+          <t>Monthly Budget StatementAPR</t>
+        </is>
+      </c>
       <c r="C2002" t="inlineStr"/>
-      <c r="D2002" t="inlineStr"/>
-      <c r="E2002" t="inlineStr"/>
-      <c r="F2002" t="inlineStr"/>
-      <c r="G2002" t="inlineStr"/>
+      <c r="D2002" t="inlineStr">
+        <is>
+          <t>$-161B</t>
+        </is>
+      </c>
+      <c r="E2002" t="inlineStr">
+        <is>
+          <t>$255B</t>
+        </is>
+      </c>
+      <c r="F2002" t="inlineStr">
+        <is>
+          <t>$235.0B</t>
+        </is>
+      </c>
+      <c r="G2002" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2003">
       <c r="A2003" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2003" t="inlineStr">
-        <is>
-          <t>NFIB Business Optimism IndexAPR</t>
-        </is>
-      </c>
+          <t>Tuesday May 13 2025</t>
+        </is>
+      </c>
+      <c r="B2003" t="inlineStr"/>
       <c r="C2003" t="inlineStr"/>
-      <c r="D2003" t="inlineStr">
-        <is>
-          <t>97.4</t>
-        </is>
-      </c>
-      <c r="E2003" t="inlineStr">
-        <is>
-          <t>94.5</t>
-        </is>
-      </c>
-      <c r="F2003" t="inlineStr">
-        <is>
-          <t>93.5</t>
-        </is>
-      </c>
-      <c r="G2003" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="D2003" t="inlineStr"/>
+      <c r="E2003" t="inlineStr"/>
+      <c r="F2003" t="inlineStr"/>
+      <c r="G2003" t="inlineStr"/>
     </row>
     <row r="2004">
       <c r="A2004" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2004" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMAPR</t>
+          <t>NFIB Business Optimism IndexAPR</t>
         </is>
       </c>
       <c r="C2004" t="inlineStr"/>
       <c r="D2004" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>97.4</t>
         </is>
       </c>
       <c r="E2004" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>94.5</t>
         </is>
       </c>
       <c r="F2004" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>93.5</t>
         </is>
       </c>
       <c r="G2004" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -54991,19 +54983,23 @@
       </c>
       <c r="B2005" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYAPR</t>
+          <t>Core Inflation Rate MoMAPR</t>
         </is>
       </c>
       <c r="C2005" t="inlineStr"/>
       <c r="D2005" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E2005" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E2005" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F2005" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G2005" t="inlineStr">
@@ -55020,23 +55016,19 @@
       </c>
       <c r="B2006" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMAPR</t>
+          <t>Core Inflation Rate YoYAPR</t>
         </is>
       </c>
       <c r="C2006" t="inlineStr"/>
       <c r="D2006" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E2006" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="E2006" t="inlineStr"/>
       <c r="F2006" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="G2006" t="inlineStr">
@@ -55053,23 +55045,23 @@
       </c>
       <c r="B2007" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYAPR</t>
+          <t>Inflation Rate MoMAPR</t>
         </is>
       </c>
       <c r="C2007" t="inlineStr"/>
       <c r="D2007" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E2007" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2007" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G2007" t="inlineStr">
@@ -55086,24 +55078,28 @@
       </c>
       <c r="B2008" t="inlineStr">
         <is>
-          <t>CPIAPR</t>
+          <t>Inflation Rate YoYAPR</t>
         </is>
       </c>
       <c r="C2008" t="inlineStr"/>
       <c r="D2008" t="inlineStr">
         <is>
-          <t>319.799</t>
-        </is>
-      </c>
-      <c r="E2008" t="inlineStr"/>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="E2008" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="F2008" t="inlineStr">
         <is>
-          <t>321.4</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="G2008" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -55115,19 +55111,19 @@
       </c>
       <c r="B2009" t="inlineStr">
         <is>
-          <t>CPI s.aAPR</t>
+          <t>CPIAPR</t>
         </is>
       </c>
       <c r="C2009" t="inlineStr"/>
       <c r="D2009" t="inlineStr">
         <is>
-          <t>319.615</t>
+          <t>319.799</t>
         </is>
       </c>
       <c r="E2009" t="inlineStr"/>
       <c r="F2009" t="inlineStr">
         <is>
-          <t>320.6</t>
+          <t>321.4</t>
         </is>
       </c>
       <c r="G2009" t="inlineStr">
@@ -55139,43 +55135,47 @@
     <row r="2010">
       <c r="A2010" t="inlineStr">
         <is>
-          <t>06:25 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2010" t="inlineStr">
         <is>
-          <t>Redbook YoYMAY/10</t>
+          <t>CPI s.aAPR</t>
         </is>
       </c>
       <c r="C2010" t="inlineStr"/>
       <c r="D2010" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>319.615</t>
         </is>
       </c>
       <c r="E2010" t="inlineStr"/>
-      <c r="F2010" t="inlineStr"/>
+      <c r="F2010" t="inlineStr">
+        <is>
+          <t>320.6</t>
+        </is>
+      </c>
       <c r="G2010" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2011">
       <c r="A2011" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>06:25 PM</t>
         </is>
       </c>
       <c r="B2011" t="inlineStr">
         <is>
-          <t>Total Household DebtQ1</t>
+          <t>Redbook YoYMAY/10</t>
         </is>
       </c>
       <c r="C2011" t="inlineStr"/>
       <c r="D2011" t="inlineStr">
         <is>
-          <t>$18.04T</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="E2011" t="inlineStr"/>
@@ -55189,18 +55189,18 @@
     <row r="2012">
       <c r="A2012" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2012" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Total Household DebtQ1</t>
         </is>
       </c>
       <c r="C2012" t="inlineStr"/>
       <c r="D2012" t="inlineStr">
         <is>
-          <t>3.820%</t>
+          <t>$18.04T</t>
         </is>
       </c>
       <c r="E2012" t="inlineStr"/>
@@ -55214,54 +55214,58 @@
     <row r="2013">
       <c r="A2013" t="inlineStr">
         <is>
-          <t>Wednesday May 14 2025</t>
-        </is>
-      </c>
-      <c r="B2013" t="inlineStr"/>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B2013" t="inlineStr">
+        <is>
+          <t>52-Week Bill Auction</t>
+        </is>
+      </c>
       <c r="C2013" t="inlineStr"/>
-      <c r="D2013" t="inlineStr"/>
+      <c r="D2013" t="inlineStr">
+        <is>
+          <t>3.820%</t>
+        </is>
+      </c>
       <c r="E2013" t="inlineStr"/>
       <c r="F2013" t="inlineStr"/>
-      <c r="G2013" t="inlineStr"/>
+      <c r="G2013" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2014">
       <c r="A2014" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2014" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeMAY/09</t>
-        </is>
-      </c>
+          <t>Wednesday May 14 2025</t>
+        </is>
+      </c>
+      <c r="B2014" t="inlineStr"/>
       <c r="C2014" t="inlineStr"/>
-      <c r="D2014" t="inlineStr">
-        <is>
-          <t>-4.49M</t>
-        </is>
-      </c>
+      <c r="D2014" t="inlineStr"/>
       <c r="E2014" t="inlineStr"/>
       <c r="F2014" t="inlineStr"/>
-      <c r="G2014" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2014" t="inlineStr"/>
     </row>
     <row r="2015">
       <c r="A2015" t="inlineStr">
         <is>
-          <t>02:45 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2015" t="inlineStr">
         <is>
-          <t>Fed Waller Speech</t>
+          <t>API Crude Oil Stock ChangeMAY/09</t>
         </is>
       </c>
       <c r="C2015" t="inlineStr"/>
-      <c r="D2015" t="inlineStr"/>
+      <c r="D2015" t="inlineStr">
+        <is>
+          <t>-4.49M</t>
+        </is>
+      </c>
       <c r="E2015" t="inlineStr"/>
       <c r="F2015" t="inlineStr"/>
       <c r="G2015" t="inlineStr">
@@ -55273,20 +55277,16 @@
     <row r="2016">
       <c r="A2016" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B2016" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateMAY/09</t>
+          <t>Fed Waller Speech</t>
         </is>
       </c>
       <c r="C2016" t="inlineStr"/>
-      <c r="D2016" t="inlineStr">
-        <is>
-          <t>6.84%</t>
-        </is>
-      </c>
+      <c r="D2016" t="inlineStr"/>
       <c r="E2016" t="inlineStr"/>
       <c r="F2016" t="inlineStr"/>
       <c r="G2016" t="inlineStr">
@@ -55303,20 +55303,20 @@
       </c>
       <c r="B2017" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsMAY/09</t>
+          <t>MBA 30-Year Mortgage RateMAY/09</t>
         </is>
       </c>
       <c r="C2017" t="inlineStr"/>
       <c r="D2017" t="inlineStr">
         <is>
-          <t>11%</t>
+          <t>6.84%</t>
         </is>
       </c>
       <c r="E2017" t="inlineStr"/>
       <c r="F2017" t="inlineStr"/>
       <c r="G2017" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -55328,13 +55328,13 @@
       </c>
       <c r="B2018" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexMAY/09</t>
+          <t>MBA Mortgage ApplicationsMAY/09</t>
         </is>
       </c>
       <c r="C2018" t="inlineStr"/>
       <c r="D2018" t="inlineStr">
         <is>
-          <t>248.4</t>
+          <t>11%</t>
         </is>
       </c>
       <c r="E2018" t="inlineStr"/>
@@ -55353,13 +55353,13 @@
       </c>
       <c r="B2019" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexMAY/09</t>
+          <t>MBA Mortgage Market IndexMAY/09</t>
         </is>
       </c>
       <c r="C2019" t="inlineStr"/>
       <c r="D2019" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>248.4</t>
         </is>
       </c>
       <c r="E2019" t="inlineStr"/>
@@ -55378,13 +55378,13 @@
       </c>
       <c r="B2020" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexMAY/09</t>
+          <t>MBA Mortgage Refinance IndexMAY/09</t>
         </is>
       </c>
       <c r="C2020" t="inlineStr"/>
       <c r="D2020" t="inlineStr">
         <is>
-          <t>162.8</t>
+          <t>721</t>
         </is>
       </c>
       <c r="E2020" t="inlineStr"/>
@@ -55398,41 +55398,41 @@
     <row r="2021">
       <c r="A2021" t="inlineStr">
         <is>
-          <t>06:40 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2021" t="inlineStr">
         <is>
-          <t>Fed Jefferson Speech</t>
+          <t>MBA Purchase IndexMAY/09</t>
         </is>
       </c>
       <c r="C2021" t="inlineStr"/>
-      <c r="D2021" t="inlineStr"/>
+      <c r="D2021" t="inlineStr">
+        <is>
+          <t>162.8</t>
+        </is>
+      </c>
       <c r="E2021" t="inlineStr"/>
       <c r="F2021" t="inlineStr"/>
       <c r="G2021" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2022">
       <c r="A2022" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:40 PM</t>
         </is>
       </c>
       <c r="B2022" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeMAY/09</t>
+          <t>Fed Jefferson Speech</t>
         </is>
       </c>
       <c r="C2022" t="inlineStr"/>
-      <c r="D2022" t="inlineStr">
-        <is>
-          <t>-2.032M</t>
-        </is>
-      </c>
+      <c r="D2022" t="inlineStr"/>
       <c r="E2022" t="inlineStr"/>
       <c r="F2022" t="inlineStr"/>
       <c r="G2022" t="inlineStr">
@@ -55449,13 +55449,13 @@
       </c>
       <c r="B2023" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeMAY/09</t>
+          <t>EIA Crude Oil Stocks ChangeMAY/09</t>
         </is>
       </c>
       <c r="C2023" t="inlineStr"/>
       <c r="D2023" t="inlineStr">
         <is>
-          <t>0.188M</t>
+          <t>-2.032M</t>
         </is>
       </c>
       <c r="E2023" t="inlineStr"/>
@@ -55474,20 +55474,20 @@
       </c>
       <c r="B2024" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeMAY/09</t>
+          <t>EIA Gasoline Stocks ChangeMAY/09</t>
         </is>
       </c>
       <c r="C2024" t="inlineStr"/>
       <c r="D2024" t="inlineStr">
         <is>
-          <t>0.673M</t>
+          <t>0.188M</t>
         </is>
       </c>
       <c r="E2024" t="inlineStr"/>
       <c r="F2024" t="inlineStr"/>
       <c r="G2024" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -55499,13 +55499,13 @@
       </c>
       <c r="B2025" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAY/09</t>
+          <t>EIA Crude Oil Imports ChangeMAY/09</t>
         </is>
       </c>
       <c r="C2025" t="inlineStr"/>
       <c r="D2025" t="inlineStr">
         <is>
-          <t>-0.74M</t>
+          <t>0.673M</t>
         </is>
       </c>
       <c r="E2025" t="inlineStr"/>
@@ -55524,13 +55524,13 @@
       </c>
       <c r="B2026" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeMAY/09</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeMAY/09</t>
         </is>
       </c>
       <c r="C2026" t="inlineStr"/>
       <c r="D2026" t="inlineStr">
         <is>
-          <t>0.041M</t>
+          <t>-0.74M</t>
         </is>
       </c>
       <c r="E2026" t="inlineStr"/>
@@ -55549,13 +55549,13 @@
       </c>
       <c r="B2027" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeMAY/09</t>
+          <t>EIA Distillate Fuel Production ChangeMAY/09</t>
         </is>
       </c>
       <c r="C2027" t="inlineStr"/>
       <c r="D2027" t="inlineStr">
         <is>
-          <t>-1.107M</t>
+          <t>0.041M</t>
         </is>
       </c>
       <c r="E2027" t="inlineStr"/>
@@ -55574,13 +55574,13 @@
       </c>
       <c r="B2028" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeMAY/09</t>
+          <t>EIA Distillate Stocks ChangeMAY/09</t>
         </is>
       </c>
       <c r="C2028" t="inlineStr"/>
       <c r="D2028" t="inlineStr">
         <is>
-          <t>0.253M</t>
+          <t>-1.107M</t>
         </is>
       </c>
       <c r="E2028" t="inlineStr"/>
@@ -55599,13 +55599,13 @@
       </c>
       <c r="B2029" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeMAY/09</t>
+          <t>EIA Gasoline Production ChangeMAY/09</t>
         </is>
       </c>
       <c r="C2029" t="inlineStr"/>
       <c r="D2029" t="inlineStr">
         <is>
-          <t>0.123M</t>
+          <t>0.253M</t>
         </is>
       </c>
       <c r="E2029" t="inlineStr"/>
@@ -55624,13 +55624,13 @@
       </c>
       <c r="B2030" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeMAY/09</t>
+          <t>EIA Heating Oil Stocks ChangeMAY/09</t>
         </is>
       </c>
       <c r="C2030" t="inlineStr"/>
       <c r="D2030" t="inlineStr">
         <is>
-          <t>-0.007M</t>
+          <t>0.123M</t>
         </is>
       </c>
       <c r="E2030" t="inlineStr"/>
@@ -55644,18 +55644,18 @@
     <row r="2031">
       <c r="A2031" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2031" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>EIA Refinery Crude Runs ChangeMAY/09</t>
         </is>
       </c>
       <c r="C2031" t="inlineStr"/>
       <c r="D2031" t="inlineStr">
         <is>
-          <t>4.200%</t>
+          <t>-0.007M</t>
         </is>
       </c>
       <c r="E2031" t="inlineStr"/>
@@ -55669,67 +55669,59 @@
     <row r="2032">
       <c r="A2032" t="inlineStr">
         <is>
-          <t>Thursday May 15 2025</t>
-        </is>
-      </c>
-      <c r="B2032" t="inlineStr"/>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B2032" t="inlineStr">
+        <is>
+          <t>17-Week Bill Auction</t>
+        </is>
+      </c>
       <c r="C2032" t="inlineStr"/>
-      <c r="D2032" t="inlineStr"/>
+      <c r="D2032" t="inlineStr">
+        <is>
+          <t>4.200%</t>
+        </is>
+      </c>
       <c r="E2032" t="inlineStr"/>
       <c r="F2032" t="inlineStr"/>
-      <c r="G2032" t="inlineStr"/>
+      <c r="G2032" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2033">
       <c r="A2033" t="inlineStr">
         <is>
-          <t>03:10 AM</t>
-        </is>
-      </c>
-      <c r="B2033" t="inlineStr">
-        <is>
-          <t>Fed Daly Speech</t>
-        </is>
-      </c>
+          <t>Thursday May 15 2025</t>
+        </is>
+      </c>
+      <c r="B2033" t="inlineStr"/>
       <c r="C2033" t="inlineStr"/>
       <c r="D2033" t="inlineStr"/>
       <c r="E2033" t="inlineStr"/>
       <c r="F2033" t="inlineStr"/>
-      <c r="G2033" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2033" t="inlineStr"/>
     </row>
     <row r="2034">
       <c r="A2034" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>03:10 AM</t>
         </is>
       </c>
       <c r="B2034" t="inlineStr">
         <is>
-          <t>PPI MoMAPR</t>
+          <t>Fed Daly Speech</t>
         </is>
       </c>
       <c r="C2034" t="inlineStr"/>
-      <c r="D2034" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="E2034" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F2034" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="D2034" t="inlineStr"/>
+      <c r="E2034" t="inlineStr"/>
+      <c r="F2034" t="inlineStr"/>
       <c r="G2034" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -55741,23 +55733,23 @@
       </c>
       <c r="B2035" t="inlineStr">
         <is>
-          <t>Retail Sales MoMAPR</t>
+          <t>PPI MoMAPR</t>
         </is>
       </c>
       <c r="C2035" t="inlineStr"/>
       <c r="D2035" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="E2035" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F2035" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G2035" t="inlineStr">
@@ -55774,28 +55766,28 @@
       </c>
       <c r="B2036" t="inlineStr">
         <is>
-          <t>Core PPI MoMAPR</t>
+          <t>Retail Sales MoMAPR</t>
         </is>
       </c>
       <c r="C2036" t="inlineStr"/>
       <c r="D2036" t="inlineStr">
         <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="E2036" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F2036" t="inlineStr">
+        <is>
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="E2036" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2036" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
       <c r="G2036" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -55807,23 +55799,23 @@
       </c>
       <c r="B2037" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsMAY/10</t>
+          <t>Core PPI MoMAPR</t>
         </is>
       </c>
       <c r="C2037" t="inlineStr"/>
       <c r="D2037" t="inlineStr">
         <is>
-          <t>228K</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E2037" t="inlineStr">
         <is>
-          <t>230K</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2037" t="inlineStr">
         <is>
-          <t>220.0K</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G2037" t="inlineStr">
@@ -55840,23 +55832,23 @@
       </c>
       <c r="B2038" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexMAY</t>
+          <t>Initial Jobless ClaimsMAY/10</t>
         </is>
       </c>
       <c r="C2038" t="inlineStr"/>
       <c r="D2038" t="inlineStr">
         <is>
-          <t>-8.10</t>
+          <t>228K</t>
         </is>
       </c>
       <c r="E2038" t="inlineStr">
         <is>
-          <t>-7.1</t>
+          <t>230K</t>
         </is>
       </c>
       <c r="F2038" t="inlineStr">
         <is>
-          <t>-7.6</t>
+          <t>220.0K</t>
         </is>
       </c>
       <c r="G2038" t="inlineStr">
@@ -55873,23 +55865,23 @@
       </c>
       <c r="B2039" t="inlineStr">
         <is>
-          <t>Philadelphia Fed Manufacturing IndexMAY</t>
+          <t>NY Empire State Manufacturing IndexMAY</t>
         </is>
       </c>
       <c r="C2039" t="inlineStr"/>
       <c r="D2039" t="inlineStr">
         <is>
-          <t>-26.4</t>
+          <t>-8.10</t>
         </is>
       </c>
       <c r="E2039" t="inlineStr">
         <is>
-          <t>-8.5</t>
+          <t>-7.1</t>
         </is>
       </c>
       <c r="F2039" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>-7.6</t>
         </is>
       </c>
       <c r="G2039" t="inlineStr">
@@ -55906,19 +55898,23 @@
       </c>
       <c r="B2040" t="inlineStr">
         <is>
-          <t>Retail Sales Control Group MoMAPR</t>
+          <t>Philadelphia Fed Manufacturing IndexMAY</t>
         </is>
       </c>
       <c r="C2040" t="inlineStr"/>
       <c r="D2040" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E2040" t="inlineStr"/>
+          <t>-26.4</t>
+        </is>
+      </c>
+      <c r="E2040" t="inlineStr">
+        <is>
+          <t>-8.5</t>
+        </is>
+      </c>
       <c r="F2040" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="G2040" t="inlineStr">
@@ -55935,23 +55931,19 @@
       </c>
       <c r="B2041" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMAPR</t>
+          <t>Retail Sales Control Group MoMAPR</t>
         </is>
       </c>
       <c r="C2041" t="inlineStr"/>
       <c r="D2041" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E2041" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E2041" t="inlineStr"/>
       <c r="F2041" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="G2041" t="inlineStr">
@@ -55968,24 +55960,28 @@
       </c>
       <c r="B2042" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsMAY/03</t>
+          <t>Retail Sales Ex Autos MoMAPR</t>
         </is>
       </c>
       <c r="C2042" t="inlineStr"/>
       <c r="D2042" t="inlineStr">
         <is>
-          <t>1879K</t>
-        </is>
-      </c>
-      <c r="E2042" t="inlineStr"/>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="E2042" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F2042" t="inlineStr">
         <is>
-          <t>1875.0K</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G2042" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -55997,19 +55993,19 @@
       </c>
       <c r="B2043" t="inlineStr">
         <is>
-          <t>Core PPI YoYAPR</t>
+          <t>Continuing Jobless ClaimsMAY/03</t>
         </is>
       </c>
       <c r="C2043" t="inlineStr"/>
       <c r="D2043" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>1879K</t>
         </is>
       </c>
       <c r="E2043" t="inlineStr"/>
       <c r="F2043" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>1875.0K</t>
         </is>
       </c>
       <c r="G2043" t="inlineStr">
@@ -56026,19 +56022,19 @@
       </c>
       <c r="B2044" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageMAY/10</t>
+          <t>Core PPI YoYAPR</t>
         </is>
       </c>
       <c r="C2044" t="inlineStr"/>
       <c r="D2044" t="inlineStr">
         <is>
-          <t>227K</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="E2044" t="inlineStr"/>
       <c r="F2044" t="inlineStr">
         <is>
-          <t>225.0K</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G2044" t="inlineStr">
@@ -56055,17 +56051,21 @@
       </c>
       <c r="B2045" t="inlineStr">
         <is>
-          <t>Philly Fed Business ConditionsMAY</t>
+          <t>Jobless Claims 4-week AverageMAY/10</t>
         </is>
       </c>
       <c r="C2045" t="inlineStr"/>
       <c r="D2045" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>227K</t>
         </is>
       </c>
       <c r="E2045" t="inlineStr"/>
-      <c r="F2045" t="inlineStr"/>
+      <c r="F2045" t="inlineStr">
+        <is>
+          <t>225.0K</t>
+        </is>
+      </c>
       <c r="G2045" t="inlineStr">
         <is>
           <t>3</t>
@@ -56080,13 +56080,13 @@
       </c>
       <c r="B2046" t="inlineStr">
         <is>
-          <t>Philly Fed CAPEX IndexMAY</t>
+          <t>Philly Fed Business ConditionsMAY</t>
         </is>
       </c>
       <c r="C2046" t="inlineStr"/>
       <c r="D2046" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6.9</t>
         </is>
       </c>
       <c r="E2046" t="inlineStr"/>
@@ -56105,13 +56105,13 @@
       </c>
       <c r="B2047" t="inlineStr">
         <is>
-          <t>Philly Fed EmploymentMAY</t>
+          <t>Philly Fed CAPEX IndexMAY</t>
         </is>
       </c>
       <c r="C2047" t="inlineStr"/>
       <c r="D2047" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E2047" t="inlineStr"/>
@@ -56130,13 +56130,13 @@
       </c>
       <c r="B2048" t="inlineStr">
         <is>
-          <t>Philly Fed New OrdersMAY</t>
+          <t>Philly Fed EmploymentMAY</t>
         </is>
       </c>
       <c r="C2048" t="inlineStr"/>
       <c r="D2048" t="inlineStr">
         <is>
-          <t>-34.2</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="E2048" t="inlineStr"/>
@@ -56155,13 +56155,13 @@
       </c>
       <c r="B2049" t="inlineStr">
         <is>
-          <t>Philly Fed Prices PaidMAY</t>
+          <t>Philly Fed New OrdersMAY</t>
         </is>
       </c>
       <c r="C2049" t="inlineStr"/>
       <c r="D2049" t="inlineStr">
         <is>
-          <t>51.00</t>
+          <t>-34.2</t>
         </is>
       </c>
       <c r="E2049" t="inlineStr"/>
@@ -56180,21 +56180,17 @@
       </c>
       <c r="B2050" t="inlineStr">
         <is>
-          <t>PPIAPR</t>
+          <t>Philly Fed Prices PaidMAY</t>
         </is>
       </c>
       <c r="C2050" t="inlineStr"/>
       <c r="D2050" t="inlineStr">
         <is>
-          <t>147.464</t>
+          <t>51.00</t>
         </is>
       </c>
       <c r="E2050" t="inlineStr"/>
-      <c r="F2050" t="inlineStr">
-        <is>
-          <t>147.76</t>
-        </is>
-      </c>
+      <c r="F2050" t="inlineStr"/>
       <c r="G2050" t="inlineStr">
         <is>
           <t>3</t>
@@ -56209,19 +56205,19 @@
       </c>
       <c r="B2051" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMAPR</t>
+          <t>PPIAPR</t>
         </is>
       </c>
       <c r="C2051" t="inlineStr"/>
       <c r="D2051" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>147.464</t>
         </is>
       </c>
       <c r="E2051" t="inlineStr"/>
       <c r="F2051" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>147.76</t>
         </is>
       </c>
       <c r="G2051" t="inlineStr">
@@ -56238,19 +56234,19 @@
       </c>
       <c r="B2052" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYAPR</t>
+          <t>PPI Ex Food, Energy and Trade MoMAPR</t>
         </is>
       </c>
       <c r="C2052" t="inlineStr"/>
       <c r="D2052" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E2052" t="inlineStr"/>
       <c r="F2052" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G2052" t="inlineStr">
@@ -56267,19 +56263,19 @@
       </c>
       <c r="B2053" t="inlineStr">
         <is>
-          <t>PPI YoYAPR</t>
+          <t>PPI Ex Food, Energy and Trade YoYAPR</t>
         </is>
       </c>
       <c r="C2053" t="inlineStr"/>
       <c r="D2053" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="E2053" t="inlineStr"/>
       <c r="F2053" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="G2053" t="inlineStr">
@@ -56296,19 +56292,19 @@
       </c>
       <c r="B2054" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMAPR</t>
+          <t>PPI YoYAPR</t>
         </is>
       </c>
       <c r="C2054" t="inlineStr"/>
       <c r="D2054" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="E2054" t="inlineStr"/>
       <c r="F2054" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="G2054" t="inlineStr">
@@ -56325,19 +56321,19 @@
       </c>
       <c r="B2055" t="inlineStr">
         <is>
-          <t>Retail Sales YoYAPR</t>
+          <t>Retail Sales Ex Gas/Autos MoMAPR</t>
         </is>
       </c>
       <c r="C2055" t="inlineStr"/>
       <c r="D2055" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="E2055" t="inlineStr"/>
       <c r="F2055" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="G2055" t="inlineStr">
@@ -56349,54 +56345,50 @@
     <row r="2056">
       <c r="A2056" t="inlineStr">
         <is>
-          <t>06:10 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2056" t="inlineStr">
         <is>
-          <t>Fed Chair Powell Speech</t>
+          <t>Retail Sales YoYAPR</t>
         </is>
       </c>
       <c r="C2056" t="inlineStr"/>
-      <c r="D2056" t="inlineStr"/>
+      <c r="D2056" t="inlineStr">
+        <is>
+          <t>4.9%</t>
+        </is>
+      </c>
       <c r="E2056" t="inlineStr"/>
-      <c r="F2056" t="inlineStr"/>
+      <c r="F2056" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="G2056" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2057">
       <c r="A2057" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>06:10 PM</t>
         </is>
       </c>
       <c r="B2057" t="inlineStr">
         <is>
-          <t>Industrial Production MoMAPR</t>
+          <t>Fed Chair Powell Speech</t>
         </is>
       </c>
       <c r="C2057" t="inlineStr"/>
-      <c r="D2057" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E2057" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2057" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="D2057" t="inlineStr"/>
+      <c r="E2057" t="inlineStr"/>
+      <c r="F2057" t="inlineStr"/>
       <c r="G2057" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -56408,28 +56400,28 @@
       </c>
       <c r="B2058" t="inlineStr">
         <is>
-          <t>Capacity UtilizationAPR</t>
+          <t>Industrial Production MoMAPR</t>
         </is>
       </c>
       <c r="C2058" t="inlineStr"/>
       <c r="D2058" t="inlineStr">
         <is>
-          <t>77.8%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="E2058" t="inlineStr">
         <is>
-          <t>77.8%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2058" t="inlineStr">
         <is>
-          <t>77.8%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="G2058" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -56441,19 +56433,23 @@
       </c>
       <c r="B2059" t="inlineStr">
         <is>
-          <t>Industrial Production YoYAPR</t>
+          <t>Capacity UtilizationAPR</t>
         </is>
       </c>
       <c r="C2059" t="inlineStr"/>
       <c r="D2059" t="inlineStr">
         <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="E2059" t="inlineStr"/>
+          <t>77.8%</t>
+        </is>
+      </c>
+      <c r="E2059" t="inlineStr">
+        <is>
+          <t>77.8%</t>
+        </is>
+      </c>
       <c r="F2059" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>77.8%</t>
         </is>
       </c>
       <c r="G2059" t="inlineStr">
@@ -56470,19 +56466,19 @@
       </c>
       <c r="B2060" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMAPR</t>
+          <t>Industrial Production YoYAPR</t>
         </is>
       </c>
       <c r="C2060" t="inlineStr"/>
       <c r="D2060" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="E2060" t="inlineStr"/>
       <c r="F2060" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="G2060" t="inlineStr">
@@ -56499,19 +56495,19 @@
       </c>
       <c r="B2061" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYAPR</t>
+          <t>Manufacturing Production MoMAPR</t>
         </is>
       </c>
       <c r="C2061" t="inlineStr"/>
       <c r="D2061" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E2061" t="inlineStr"/>
       <c r="F2061" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G2061" t="inlineStr">
@@ -56523,33 +56519,29 @@
     <row r="2062">
       <c r="A2062" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B2062" t="inlineStr">
         <is>
-          <t>Business Inventories MoMMAR</t>
+          <t>Manufacturing Production YoYAPR</t>
         </is>
       </c>
       <c r="C2062" t="inlineStr"/>
       <c r="D2062" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E2062" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="E2062" t="inlineStr"/>
       <c r="F2062" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="G2062" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -56561,23 +56553,23 @@
       </c>
       <c r="B2063" t="inlineStr">
         <is>
-          <t>NAHB Housing Market IndexMAY</t>
+          <t>Business Inventories MoMMAR</t>
         </is>
       </c>
       <c r="C2063" t="inlineStr"/>
       <c r="D2063" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E2063" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F2063" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G2063" t="inlineStr">
@@ -56594,50 +56586,58 @@
       </c>
       <c r="B2064" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoMMAR</t>
+          <t>NAHB Housing Market IndexMAY</t>
         </is>
       </c>
       <c r="C2064" t="inlineStr"/>
       <c r="D2064" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E2064" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F2064" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G2064" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2065">
       <c r="A2065" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2065" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeMAY/09</t>
+          <t>Retail Inventories Ex Autos MoMMAR</t>
         </is>
       </c>
       <c r="C2065" t="inlineStr"/>
       <c r="D2065" t="inlineStr">
         <is>
-          <t>104Bcf</t>
-        </is>
-      </c>
-      <c r="E2065" t="inlineStr"/>
-      <c r="F2065" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E2065" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F2065" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G2065" t="inlineStr">
         <is>
           <t>3</t>
@@ -56647,18 +56647,18 @@
     <row r="2066">
       <c r="A2066" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2066" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>EIA Natural Gas Stocks ChangeMAY/09</t>
         </is>
       </c>
       <c r="C2066" t="inlineStr"/>
       <c r="D2066" t="inlineStr">
         <is>
-          <t>4.225%</t>
+          <t>104Bcf</t>
         </is>
       </c>
       <c r="E2066" t="inlineStr"/>
@@ -56677,7 +56677,7 @@
       </c>
       <c r="B2067" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2067" t="inlineStr"/>
@@ -56697,18 +56697,18 @@
     <row r="2068">
       <c r="A2068" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2068" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateMAY/15</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2068" t="inlineStr"/>
       <c r="D2068" t="inlineStr">
         <is>
-          <t>5.89%</t>
+          <t>4.225%</t>
         </is>
       </c>
       <c r="E2068" t="inlineStr"/>
@@ -56727,13 +56727,13 @@
       </c>
       <c r="B2069" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateMAY/15</t>
+          <t>15-Year Mortgage RateMAY/15</t>
         </is>
       </c>
       <c r="C2069" t="inlineStr"/>
       <c r="D2069" t="inlineStr">
         <is>
-          <t>6.76%</t>
+          <t>5.89%</t>
         </is>
       </c>
       <c r="E2069" t="inlineStr"/>
@@ -56752,11 +56752,15 @@
       </c>
       <c r="B2070" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>30-Year Mortgage RateMAY/15</t>
         </is>
       </c>
       <c r="C2070" t="inlineStr"/>
-      <c r="D2070" t="inlineStr"/>
+      <c r="D2070" t="inlineStr">
+        <is>
+          <t>6.76%</t>
+        </is>
+      </c>
       <c r="E2070" t="inlineStr"/>
       <c r="F2070" t="inlineStr"/>
       <c r="G2070" t="inlineStr">
@@ -56768,12 +56772,12 @@
     <row r="2071">
       <c r="A2071" t="inlineStr">
         <is>
-          <t>11:35 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2071" t="inlineStr">
         <is>
-          <t>Fed Barr Speech</t>
+          <t>NOPA Crush Report</t>
         </is>
       </c>
       <c r="C2071" t="inlineStr"/>
@@ -56782,78 +56786,66 @@
       <c r="F2071" t="inlineStr"/>
       <c r="G2071" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2072">
       <c r="A2072" t="inlineStr">
         <is>
-          <t>Friday May 16 2025</t>
-        </is>
-      </c>
-      <c r="B2072" t="inlineStr"/>
+          <t>11:35 PM</t>
+        </is>
+      </c>
+      <c r="B2072" t="inlineStr">
+        <is>
+          <t>Fed Barr Speech</t>
+        </is>
+      </c>
       <c r="C2072" t="inlineStr"/>
       <c r="D2072" t="inlineStr"/>
       <c r="E2072" t="inlineStr"/>
       <c r="F2072" t="inlineStr"/>
-      <c r="G2072" t="inlineStr"/>
+      <c r="G2072" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2073">
       <c r="A2073" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2073" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAY/14</t>
-        </is>
-      </c>
+          <t>Friday May 16 2025</t>
+        </is>
+      </c>
+      <c r="B2073" t="inlineStr"/>
       <c r="C2073" t="inlineStr"/>
-      <c r="D2073" t="inlineStr">
-        <is>
-          <t>$6.71T</t>
-        </is>
-      </c>
+      <c r="D2073" t="inlineStr"/>
       <c r="E2073" t="inlineStr"/>
       <c r="F2073" t="inlineStr"/>
-      <c r="G2073" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2073" t="inlineStr"/>
     </row>
     <row r="2074">
       <c r="A2074" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2074" t="inlineStr">
         <is>
-          <t>Building Permits PrelAPR</t>
+          <t>Fed Balance SheetMAY/14</t>
         </is>
       </c>
       <c r="C2074" t="inlineStr"/>
       <c r="D2074" t="inlineStr">
         <is>
-          <t>1.467M</t>
-        </is>
-      </c>
-      <c r="E2074" t="inlineStr">
-        <is>
-          <t>1.450M</t>
-        </is>
-      </c>
-      <c r="F2074" t="inlineStr">
-        <is>
-          <t>1.45M</t>
-        </is>
-      </c>
+          <t>$6.71T</t>
+        </is>
+      </c>
+      <c r="E2074" t="inlineStr"/>
+      <c r="F2074" t="inlineStr"/>
       <c r="G2074" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -56865,23 +56857,23 @@
       </c>
       <c r="B2075" t="inlineStr">
         <is>
-          <t>Housing StartsAPR</t>
+          <t>Building Permits PrelAPR</t>
         </is>
       </c>
       <c r="C2075" t="inlineStr"/>
       <c r="D2075" t="inlineStr">
         <is>
-          <t>1.324M</t>
+          <t>1.467M</t>
         </is>
       </c>
       <c r="E2075" t="inlineStr">
         <is>
-          <t>1.36M</t>
+          <t>1.450M</t>
         </is>
       </c>
       <c r="F2075" t="inlineStr">
         <is>
-          <t>1.31M</t>
+          <t>1.45M</t>
         </is>
       </c>
       <c r="G2075" t="inlineStr">
@@ -56898,24 +56890,28 @@
       </c>
       <c r="B2076" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelAPR</t>
+          <t>Housing StartsAPR</t>
         </is>
       </c>
       <c r="C2076" t="inlineStr"/>
       <c r="D2076" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E2076" t="inlineStr"/>
+          <t>1.324M</t>
+        </is>
+      </c>
+      <c r="E2076" t="inlineStr">
+        <is>
+          <t>1.36M</t>
+        </is>
+      </c>
       <c r="F2076" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>1.31M</t>
         </is>
       </c>
       <c r="G2076" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -56927,19 +56923,19 @@
       </c>
       <c r="B2077" t="inlineStr">
         <is>
-          <t>Export Prices MoMAPR</t>
+          <t>Building Permits MoM PrelAPR</t>
         </is>
       </c>
       <c r="C2077" t="inlineStr"/>
       <c r="D2077" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E2077" t="inlineStr"/>
       <c r="F2077" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="G2077" t="inlineStr">
@@ -56956,19 +56952,19 @@
       </c>
       <c r="B2078" t="inlineStr">
         <is>
-          <t>Housing Starts MoMAPR</t>
+          <t>Export Prices MoMAPR</t>
         </is>
       </c>
       <c r="C2078" t="inlineStr"/>
       <c r="D2078" t="inlineStr">
         <is>
-          <t>-11.4%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E2078" t="inlineStr"/>
       <c r="F2078" t="inlineStr">
         <is>
-          <t>-1%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="G2078" t="inlineStr">
@@ -56985,23 +56981,19 @@
       </c>
       <c r="B2079" t="inlineStr">
         <is>
-          <t>Import Prices MoMAPR</t>
+          <t>Housing Starts MoMAPR</t>
         </is>
       </c>
       <c r="C2079" t="inlineStr"/>
       <c r="D2079" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E2079" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
+          <t>-11.4%</t>
+        </is>
+      </c>
+      <c r="E2079" t="inlineStr"/>
       <c r="F2079" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="G2079" t="inlineStr">
@@ -57018,24 +57010,28 @@
       </c>
       <c r="B2080" t="inlineStr">
         <is>
-          <t>Export Prices YoYAPR</t>
+          <t>Import Prices MoMAPR</t>
         </is>
       </c>
       <c r="C2080" t="inlineStr"/>
       <c r="D2080" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E2080" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="E2080" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2080" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="G2080" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -57047,19 +57043,19 @@
       </c>
       <c r="B2081" t="inlineStr">
         <is>
-          <t>Import Prices YoYAPR</t>
+          <t>Export Prices YoYAPR</t>
         </is>
       </c>
       <c r="C2081" t="inlineStr"/>
       <c r="D2081" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="E2081" t="inlineStr"/>
       <c r="F2081" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="G2081" t="inlineStr">
@@ -57071,33 +57067,29 @@
     <row r="2082">
       <c r="A2082" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2082" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelMAY</t>
+          <t>Import Prices YoYAPR</t>
         </is>
       </c>
       <c r="C2082" t="inlineStr"/>
       <c r="D2082" t="inlineStr">
         <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="E2082" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="E2082" t="inlineStr"/>
       <c r="F2082" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="G2082" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -57109,24 +57101,28 @@
       </c>
       <c r="B2083" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelMAY</t>
+          <t>Michigan Consumer Sentiment PrelMAY</t>
         </is>
       </c>
       <c r="C2083" t="inlineStr"/>
       <c r="D2083" t="inlineStr">
         <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="E2083" t="inlineStr"/>
+          <t>52.2</t>
+        </is>
+      </c>
+      <c r="E2083" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
       <c r="F2083" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>52</t>
         </is>
       </c>
       <c r="G2083" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -57138,19 +57134,19 @@
       </c>
       <c r="B2084" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelMAY</t>
+          <t>Michigan 5 Year Inflation Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C2084" t="inlineStr"/>
       <c r="D2084" t="inlineStr">
         <is>
-          <t>47.3</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="E2084" t="inlineStr"/>
       <c r="F2084" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="G2084" t="inlineStr">
@@ -57167,19 +57163,19 @@
       </c>
       <c r="B2085" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelMAY</t>
+          <t>Michigan Consumer Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C2085" t="inlineStr"/>
       <c r="D2085" t="inlineStr">
         <is>
-          <t>59.8</t>
+          <t>47.3</t>
         </is>
       </c>
       <c r="E2085" t="inlineStr"/>
       <c r="F2085" t="inlineStr">
         <is>
-          <t>59.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="G2085" t="inlineStr">
@@ -57196,19 +57192,19 @@
       </c>
       <c r="B2086" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelMAY</t>
+          <t>Michigan Current Conditions PrelMAY</t>
         </is>
       </c>
       <c r="C2086" t="inlineStr"/>
       <c r="D2086" t="inlineStr">
         <is>
-          <t>6.5%</t>
+          <t>59.8</t>
         </is>
       </c>
       <c r="E2086" t="inlineStr"/>
       <c r="F2086" t="inlineStr">
         <is>
-          <t>6.6%</t>
+          <t>59.5</t>
         </is>
       </c>
       <c r="G2086" t="inlineStr">
@@ -57220,18 +57216,26 @@
     <row r="2087">
       <c r="A2087" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2087" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAY/16</t>
+          <t>Michigan Inflation Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C2087" t="inlineStr"/>
-      <c r="D2087" t="inlineStr"/>
+      <c r="D2087" t="inlineStr">
+        <is>
+          <t>6.5%</t>
+        </is>
+      </c>
       <c r="E2087" t="inlineStr"/>
-      <c r="F2087" t="inlineStr"/>
+      <c r="F2087" t="inlineStr">
+        <is>
+          <t>6.6%</t>
+        </is>
+      </c>
       <c r="G2087" t="inlineStr">
         <is>
           <t>3</t>
@@ -57246,7 +57250,7 @@
       </c>
       <c r="B2088" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAY/16</t>
+          <t>Baker Hughes Oil Rig CountMAY/16</t>
         </is>
       </c>
       <c r="C2088" t="inlineStr"/>
@@ -57262,40 +57266,36 @@
     <row r="2089">
       <c r="A2089" t="inlineStr">
         <is>
-          <t>Saturday May 17 2025</t>
-        </is>
-      </c>
-      <c r="B2089" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B2089" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountMAY/16</t>
+        </is>
+      </c>
       <c r="C2089" t="inlineStr"/>
       <c r="D2089" t="inlineStr"/>
       <c r="E2089" t="inlineStr"/>
       <c r="F2089" t="inlineStr"/>
-      <c r="G2089" t="inlineStr"/>
+      <c r="G2089" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2090">
       <c r="A2090" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2090" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsMAR</t>
-        </is>
-      </c>
+          <t>Saturday May 17 2025</t>
+        </is>
+      </c>
+      <c r="B2090" t="inlineStr"/>
       <c r="C2090" t="inlineStr"/>
-      <c r="D2090" t="inlineStr">
-        <is>
-          <t>$112B</t>
-        </is>
-      </c>
+      <c r="D2090" t="inlineStr"/>
       <c r="E2090" t="inlineStr"/>
       <c r="F2090" t="inlineStr"/>
-      <c r="G2090" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2090" t="inlineStr"/>
     </row>
     <row r="2091">
       <c r="A2091" t="inlineStr">
@@ -57305,20 +57305,20 @@
       </c>
       <c r="B2091" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentMAR</t>
+          <t>Net Long-term TIC FlowsMAR</t>
         </is>
       </c>
       <c r="C2091" t="inlineStr"/>
       <c r="D2091" t="inlineStr">
         <is>
-          <t>$106.2B</t>
+          <t>$112B</t>
         </is>
       </c>
       <c r="E2091" t="inlineStr"/>
       <c r="F2091" t="inlineStr"/>
       <c r="G2091" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -57330,13 +57330,13 @@
       </c>
       <c r="B2092" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsMAR</t>
+          <t>Foreign Bond InvestmentMAR</t>
         </is>
       </c>
       <c r="C2092" t="inlineStr"/>
       <c r="D2092" t="inlineStr">
         <is>
-          <t>$284.7B</t>
+          <t>$106.2B</t>
         </is>
       </c>
       <c r="E2092" t="inlineStr"/>
@@ -57350,40 +57350,65 @@
     <row r="2093">
       <c r="A2093" t="inlineStr">
         <is>
-          <t>Monday May 19 2025</t>
-        </is>
-      </c>
-      <c r="B2093" t="inlineStr"/>
+          <t>01:30 AM</t>
+        </is>
+      </c>
+      <c r="B2093" t="inlineStr">
+        <is>
+          <t>Overall Net Capital FlowsMAR</t>
+        </is>
+      </c>
       <c r="C2093" t="inlineStr"/>
-      <c r="D2093" t="inlineStr"/>
+      <c r="D2093" t="inlineStr">
+        <is>
+          <t>$284.7B</t>
+        </is>
+      </c>
       <c r="E2093" t="inlineStr"/>
       <c r="F2093" t="inlineStr"/>
-      <c r="G2093" t="inlineStr"/>
+      <c r="G2093" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2094">
       <c r="A2094" t="inlineStr">
         <is>
+          <t>Monday May 19 2025</t>
+        </is>
+      </c>
+      <c r="B2094" t="inlineStr"/>
+      <c r="C2094" t="inlineStr"/>
+      <c r="D2094" t="inlineStr"/>
+      <c r="E2094" t="inlineStr"/>
+      <c r="F2094" t="inlineStr"/>
+      <c r="G2094" t="inlineStr"/>
+    </row>
+    <row r="2095">
+      <c r="A2095" t="inlineStr">
+        <is>
           <t>07:30 PM</t>
         </is>
       </c>
-      <c r="B2094" t="inlineStr">
+      <c r="B2095" t="inlineStr">
         <is>
           <t>CB Leading Index MoMAPR</t>
         </is>
       </c>
-      <c r="C2094" t="inlineStr"/>
-      <c r="D2094" t="inlineStr">
+      <c r="C2095" t="inlineStr"/>
+      <c r="D2095" t="inlineStr">
         <is>
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="E2094" t="inlineStr"/>
-      <c r="F2094" t="inlineStr">
+      <c r="E2095" t="inlineStr"/>
+      <c r="F2095" t="inlineStr">
         <is>
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="G2094" t="inlineStr">
+      <c r="G2095" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-19.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2095"/>
+  <dimension ref="A1:G2097"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56388,7 +56388,7 @@
       <c r="F2057" t="inlineStr"/>
       <c r="G2057" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -57414,6 +57414,48 @@
         </is>
       </c>
     </row>
+    <row r="2096">
+      <c r="A2096" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B2096" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C2096" t="inlineStr"/>
+      <c r="D2096" t="inlineStr"/>
+      <c r="E2096" t="inlineStr"/>
+      <c r="F2096" t="inlineStr"/>
+      <c r="G2096" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2097">
+      <c r="A2097" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B2097" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C2097" t="inlineStr"/>
+      <c r="D2097" t="inlineStr"/>
+      <c r="E2097" t="inlineStr"/>
+      <c r="F2097" t="inlineStr"/>
+      <c r="G2097" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-19.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-19.xlsx
@@ -54617,7 +54617,11 @@
           <t>Baker Hughes Oil Rig CountMAY/09</t>
         </is>
       </c>
-      <c r="C1988" t="inlineStr"/>
+      <c r="C1988" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
       <c r="D1988" t="inlineStr">
         <is>
           <t>479</t>
@@ -54642,7 +54646,11 @@
           <t>Baker Hughes Total Rigs CountMAY/09</t>
         </is>
       </c>
-      <c r="C1989" t="inlineStr"/>
+      <c r="C1989" t="inlineStr">
+        <is>
+          <t>578</t>
+        </is>
+      </c>
       <c r="D1989" t="inlineStr">
         <is>
           <t>584</t>
@@ -57254,7 +57262,11 @@
         </is>
       </c>
       <c r="C2088" t="inlineStr"/>
-      <c r="D2088" t="inlineStr"/>
+      <c r="D2088" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
       <c r="E2088" t="inlineStr"/>
       <c r="F2088" t="inlineStr"/>
       <c r="G2088" t="inlineStr">
@@ -57275,7 +57287,11 @@
         </is>
       </c>
       <c r="C2089" t="inlineStr"/>
-      <c r="D2089" t="inlineStr"/>
+      <c r="D2089" t="inlineStr">
+        <is>
+          <t>578</t>
+        </is>
+      </c>
       <c r="E2089" t="inlineStr"/>
       <c r="F2089" t="inlineStr"/>
       <c r="G2089" t="inlineStr">
